--- a/Personal_Fit_Model/nyc_bedroom.xlsx
+++ b/Personal_Fit_Model/nyc_bedroom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\realtor-insights\Personal_Fit_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A23251-6249-44C6-A729-8DD5A9DCDC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D806E8F-42DB-4EE0-B1AF-DA4BD6DE5AED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BBE88C31-EF6A-41E9-8D46-88CC7A190B75}"/>
+    <workbookView xWindow="4380" yWindow="960" windowWidth="18168" windowHeight="11952" xr2:uid="{BBE88C31-EF6A-41E9-8D46-88CC7A190B75}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Total housing units</t>
   </si>
@@ -92,9 +92,6 @@
     <t>BK78 Bushwick South</t>
   </si>
   <si>
-    <t>BK99 park-cemetery-etc-Brooklyn</t>
-  </si>
-  <si>
     <t>BK82 East New York</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>BX62 Woodlawn-Wakefield</t>
   </si>
   <si>
-    <t>BX99 park-cemetery-etc-Bronx</t>
-  </si>
-  <si>
     <t>MN23 West Village</t>
   </si>
   <si>
@@ -404,9 +398,6 @@
     <t>MN36 Washington Heights South</t>
   </si>
   <si>
-    <t>MN99 park-cemetery-etc-Manhattan</t>
-  </si>
-  <si>
     <t>QN68 Queensbridge-Ravenswood-Long Island City</t>
   </si>
   <si>
@@ -417,9 +408,6 @@
   </si>
   <si>
     <t>QN72 Steinway</t>
-  </si>
-  <si>
-    <t>QN99 park-cemetery-etc-Queens</t>
   </si>
   <si>
     <t>QN31 Hunters Point-Sunnyside-West Maspeth</t>
@@ -1070,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76CC700-C033-42B2-830E-13F563DF4050}">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1427,25 +1415,25 @@
         <v>19</v>
       </c>
       <c r="B14" s="5">
-        <v>181</v>
+        <v>34953</v>
       </c>
       <c r="C14" s="6">
-        <v>50</v>
+        <v>2453</v>
       </c>
       <c r="D14" s="6">
-        <v>36</v>
+        <v>6909</v>
       </c>
       <c r="E14" s="6">
-        <v>29</v>
+        <v>13156</v>
       </c>
       <c r="F14" s="6">
-        <v>66</v>
+        <v>9647</v>
       </c>
       <c r="G14" s="6">
-        <v>0</v>
+        <v>1685</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1453,25 +1441,25 @@
         <v>20</v>
       </c>
       <c r="B15" s="5">
-        <v>34953</v>
+        <v>15892</v>
       </c>
       <c r="C15" s="6">
-        <v>2453</v>
+        <v>1584</v>
       </c>
       <c r="D15" s="6">
-        <v>6909</v>
+        <v>2259</v>
       </c>
       <c r="E15" s="6">
-        <v>13156</v>
+        <v>5360</v>
       </c>
       <c r="F15" s="6">
-        <v>9647</v>
+        <v>4605</v>
       </c>
       <c r="G15" s="6">
-        <v>1685</v>
+        <v>1376</v>
       </c>
       <c r="H15" s="6">
-        <v>1103</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1479,77 +1467,77 @@
         <v>21</v>
       </c>
       <c r="B16" s="5">
-        <v>15892</v>
+        <v>6466</v>
       </c>
       <c r="C16" s="6">
-        <v>1584</v>
+        <v>172</v>
       </c>
       <c r="D16" s="6">
-        <v>2259</v>
+        <v>2331</v>
       </c>
       <c r="E16" s="6">
-        <v>5360</v>
+        <v>2586</v>
       </c>
       <c r="F16" s="6">
-        <v>4605</v>
+        <v>1348</v>
       </c>
       <c r="G16" s="6">
-        <v>1376</v>
+        <v>29</v>
       </c>
       <c r="H16" s="6">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="5">
-        <v>6466</v>
+        <v>19399</v>
       </c>
       <c r="C17" s="6">
-        <v>172</v>
+        <v>1231</v>
       </c>
       <c r="D17" s="6">
-        <v>2331</v>
+        <v>6805</v>
       </c>
       <c r="E17" s="6">
-        <v>2586</v>
+        <v>7262</v>
       </c>
       <c r="F17" s="6">
-        <v>1348</v>
+        <v>2998</v>
       </c>
       <c r="G17" s="6">
-        <v>29</v>
+        <v>828</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="5">
-        <v>19399</v>
+        <v>33650</v>
       </c>
       <c r="C18" s="6">
-        <v>1231</v>
+        <v>2060</v>
       </c>
       <c r="D18" s="6">
-        <v>6805</v>
+        <v>10685</v>
       </c>
       <c r="E18" s="6">
-        <v>7262</v>
+        <v>11313</v>
       </c>
       <c r="F18" s="6">
-        <v>2998</v>
+        <v>5988</v>
       </c>
       <c r="G18" s="6">
-        <v>828</v>
+        <v>2269</v>
       </c>
       <c r="H18" s="6">
-        <v>275</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1557,25 +1545,25 @@
         <v>24</v>
       </c>
       <c r="B19" s="5">
-        <v>33650</v>
+        <v>18372</v>
       </c>
       <c r="C19" s="6">
-        <v>2060</v>
+        <v>1173</v>
       </c>
       <c r="D19" s="6">
-        <v>10685</v>
+        <v>4387</v>
       </c>
       <c r="E19" s="6">
-        <v>11313</v>
+        <v>7525</v>
       </c>
       <c r="F19" s="6">
-        <v>5988</v>
+        <v>3650</v>
       </c>
       <c r="G19" s="6">
-        <v>2269</v>
+        <v>950</v>
       </c>
       <c r="H19" s="6">
-        <v>1335</v>
+        <v>687</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1583,25 +1571,25 @@
         <v>25</v>
       </c>
       <c r="B20" s="5">
-        <v>18372</v>
+        <v>21906</v>
       </c>
       <c r="C20" s="6">
-        <v>1173</v>
+        <v>981</v>
       </c>
       <c r="D20" s="6">
-        <v>4387</v>
+        <v>4636</v>
       </c>
       <c r="E20" s="6">
-        <v>7525</v>
+        <v>9344</v>
       </c>
       <c r="F20" s="6">
-        <v>3650</v>
+        <v>5186</v>
       </c>
       <c r="G20" s="6">
-        <v>950</v>
+        <v>1112</v>
       </c>
       <c r="H20" s="6">
-        <v>687</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1609,25 +1597,25 @@
         <v>26</v>
       </c>
       <c r="B21" s="5">
-        <v>21906</v>
+        <v>10030</v>
       </c>
       <c r="C21" s="6">
-        <v>981</v>
+        <v>299</v>
       </c>
       <c r="D21" s="6">
-        <v>4636</v>
+        <v>3326</v>
       </c>
       <c r="E21" s="6">
-        <v>9344</v>
+        <v>3604</v>
       </c>
       <c r="F21" s="6">
-        <v>5186</v>
+        <v>2026</v>
       </c>
       <c r="G21" s="6">
-        <v>1112</v>
+        <v>521</v>
       </c>
       <c r="H21" s="6">
-        <v>647</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1635,25 +1623,25 @@
         <v>27</v>
       </c>
       <c r="B22" s="5">
-        <v>10030</v>
+        <v>46002</v>
       </c>
       <c r="C22" s="6">
-        <v>299</v>
+        <v>3027</v>
       </c>
       <c r="D22" s="6">
-        <v>3326</v>
+        <v>15112</v>
       </c>
       <c r="E22" s="6">
-        <v>3604</v>
+        <v>16784</v>
       </c>
       <c r="F22" s="6">
-        <v>2026</v>
+        <v>7652</v>
       </c>
       <c r="G22" s="6">
-        <v>521</v>
+        <v>1979</v>
       </c>
       <c r="H22" s="6">
-        <v>254</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1661,77 +1649,77 @@
         <v>28</v>
       </c>
       <c r="B23" s="5">
-        <v>46002</v>
+        <v>10271</v>
       </c>
       <c r="C23" s="6">
-        <v>3027</v>
+        <v>767</v>
       </c>
       <c r="D23" s="6">
-        <v>15112</v>
+        <v>3523</v>
       </c>
       <c r="E23" s="6">
-        <v>16784</v>
+        <v>3697</v>
       </c>
       <c r="F23" s="6">
-        <v>7652</v>
+        <v>1515</v>
       </c>
       <c r="G23" s="6">
-        <v>1979</v>
+        <v>467</v>
       </c>
       <c r="H23" s="6">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="5">
-        <v>10271</v>
+        <v>28089</v>
       </c>
       <c r="C24" s="6">
-        <v>767</v>
+        <v>2393</v>
       </c>
       <c r="D24" s="6">
-        <v>3523</v>
+        <v>11291</v>
       </c>
       <c r="E24" s="6">
-        <v>3697</v>
+        <v>8639</v>
       </c>
       <c r="F24" s="6">
-        <v>1515</v>
+        <v>3839</v>
       </c>
       <c r="G24" s="6">
-        <v>467</v>
+        <v>1158</v>
       </c>
       <c r="H24" s="6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="5">
-        <v>28089</v>
+        <v>15630</v>
       </c>
       <c r="C25" s="6">
-        <v>2393</v>
+        <v>836</v>
       </c>
       <c r="D25" s="6">
-        <v>11291</v>
+        <v>5455</v>
       </c>
       <c r="E25" s="6">
-        <v>8639</v>
+        <v>5154</v>
       </c>
       <c r="F25" s="6">
-        <v>3839</v>
+        <v>2746</v>
       </c>
       <c r="G25" s="6">
-        <v>1158</v>
+        <v>865</v>
       </c>
       <c r="H25" s="6">
-        <v>769</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,25 +1727,25 @@
         <v>31</v>
       </c>
       <c r="B26" s="5">
-        <v>15630</v>
+        <v>16052</v>
       </c>
       <c r="C26" s="6">
-        <v>836</v>
+        <v>311</v>
       </c>
       <c r="D26" s="6">
-        <v>5455</v>
+        <v>3365</v>
       </c>
       <c r="E26" s="6">
-        <v>5154</v>
+        <v>5573</v>
       </c>
       <c r="F26" s="6">
-        <v>2746</v>
+        <v>5063</v>
       </c>
       <c r="G26" s="6">
-        <v>865</v>
+        <v>1161</v>
       </c>
       <c r="H26" s="6">
-        <v>574</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1765,25 +1753,25 @@
         <v>32</v>
       </c>
       <c r="B27" s="5">
-        <v>16052</v>
+        <v>37125</v>
       </c>
       <c r="C27" s="6">
-        <v>311</v>
+        <v>2131</v>
       </c>
       <c r="D27" s="6">
-        <v>3365</v>
+        <v>13645</v>
       </c>
       <c r="E27" s="6">
-        <v>5573</v>
+        <v>11257</v>
       </c>
       <c r="F27" s="6">
-        <v>5063</v>
+        <v>6924</v>
       </c>
       <c r="G27" s="6">
-        <v>1161</v>
+        <v>2127</v>
       </c>
       <c r="H27" s="6">
-        <v>579</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1791,25 +1779,25 @@
         <v>33</v>
       </c>
       <c r="B28" s="5">
-        <v>37125</v>
+        <v>11640</v>
       </c>
       <c r="C28" s="6">
-        <v>2131</v>
+        <v>454</v>
       </c>
       <c r="D28" s="6">
-        <v>13645</v>
+        <v>3740</v>
       </c>
       <c r="E28" s="6">
-        <v>11257</v>
+        <v>3559</v>
       </c>
       <c r="F28" s="6">
-        <v>6924</v>
+        <v>2909</v>
       </c>
       <c r="G28" s="6">
-        <v>2127</v>
+        <v>701</v>
       </c>
       <c r="H28" s="6">
-        <v>1041</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1817,25 +1805,25 @@
         <v>34</v>
       </c>
       <c r="B29" s="5">
-        <v>11640</v>
+        <v>31897</v>
       </c>
       <c r="C29" s="6">
-        <v>454</v>
+        <v>764</v>
       </c>
       <c r="D29" s="6">
-        <v>3740</v>
+        <v>9806</v>
       </c>
       <c r="E29" s="6">
-        <v>3559</v>
+        <v>11097</v>
       </c>
       <c r="F29" s="6">
-        <v>2909</v>
+        <v>7771</v>
       </c>
       <c r="G29" s="6">
-        <v>701</v>
+        <v>1374</v>
       </c>
       <c r="H29" s="6">
-        <v>277</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1843,25 +1831,25 @@
         <v>35</v>
       </c>
       <c r="B30" s="5">
-        <v>31897</v>
+        <v>23270</v>
       </c>
       <c r="C30" s="6">
-        <v>764</v>
+        <v>698</v>
       </c>
       <c r="D30" s="6">
-        <v>9806</v>
+        <v>7874</v>
       </c>
       <c r="E30" s="6">
-        <v>11097</v>
+        <v>8108</v>
       </c>
       <c r="F30" s="6">
-        <v>7771</v>
+        <v>4984</v>
       </c>
       <c r="G30" s="6">
-        <v>1374</v>
+        <v>879</v>
       </c>
       <c r="H30" s="6">
-        <v>1085</v>
+        <v>727</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,25 +1857,25 @@
         <v>36</v>
       </c>
       <c r="B31" s="5">
-        <v>23270</v>
+        <v>12560</v>
       </c>
       <c r="C31" s="6">
-        <v>698</v>
+        <v>668</v>
       </c>
       <c r="D31" s="6">
-        <v>7874</v>
+        <v>4389</v>
       </c>
       <c r="E31" s="6">
-        <v>8108</v>
+        <v>4321</v>
       </c>
       <c r="F31" s="6">
-        <v>4984</v>
+        <v>1959</v>
       </c>
       <c r="G31" s="6">
-        <v>879</v>
+        <v>637</v>
       </c>
       <c r="H31" s="6">
-        <v>727</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1895,25 +1883,25 @@
         <v>37</v>
       </c>
       <c r="B32" s="5">
-        <v>12560</v>
+        <v>7199</v>
       </c>
       <c r="C32" s="6">
-        <v>668</v>
+        <v>212</v>
       </c>
       <c r="D32" s="6">
-        <v>4389</v>
+        <v>2059</v>
       </c>
       <c r="E32" s="6">
-        <v>4321</v>
+        <v>1759</v>
       </c>
       <c r="F32" s="6">
-        <v>1959</v>
+        <v>1913</v>
       </c>
       <c r="G32" s="6">
-        <v>637</v>
+        <v>576</v>
       </c>
       <c r="H32" s="6">
-        <v>586</v>
+        <v>680</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -1921,25 +1909,25 @@
         <v>38</v>
       </c>
       <c r="B33" s="5">
-        <v>7199</v>
+        <v>30704</v>
       </c>
       <c r="C33" s="6">
-        <v>212</v>
+        <v>797</v>
       </c>
       <c r="D33" s="6">
-        <v>2059</v>
+        <v>6182</v>
       </c>
       <c r="E33" s="6">
-        <v>1759</v>
+        <v>8878</v>
       </c>
       <c r="F33" s="6">
-        <v>1913</v>
+        <v>8169</v>
       </c>
       <c r="G33" s="6">
-        <v>576</v>
+        <v>3894</v>
       </c>
       <c r="H33" s="6">
-        <v>680</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -1947,25 +1935,25 @@
         <v>39</v>
       </c>
       <c r="B34" s="5">
-        <v>30704</v>
+        <v>15273</v>
       </c>
       <c r="C34" s="6">
-        <v>797</v>
+        <v>1947</v>
       </c>
       <c r="D34" s="6">
-        <v>6182</v>
+        <v>6248</v>
       </c>
       <c r="E34" s="6">
-        <v>8878</v>
+        <v>4506</v>
       </c>
       <c r="F34" s="6">
-        <v>8169</v>
+        <v>1955</v>
       </c>
       <c r="G34" s="6">
-        <v>3894</v>
+        <v>469</v>
       </c>
       <c r="H34" s="6">
-        <v>2784</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -1973,25 +1961,25 @@
         <v>40</v>
       </c>
       <c r="B35" s="5">
-        <v>15273</v>
+        <v>12177</v>
       </c>
       <c r="C35" s="6">
-        <v>1947</v>
+        <v>636</v>
       </c>
       <c r="D35" s="6">
-        <v>6248</v>
+        <v>4094</v>
       </c>
       <c r="E35" s="6">
-        <v>4506</v>
+        <v>3756</v>
       </c>
       <c r="F35" s="6">
-        <v>1955</v>
+        <v>2744</v>
       </c>
       <c r="G35" s="6">
-        <v>469</v>
+        <v>639</v>
       </c>
       <c r="H35" s="6">
-        <v>148</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -1999,25 +1987,25 @@
         <v>41</v>
       </c>
       <c r="B36" s="5">
-        <v>12177</v>
+        <v>8564</v>
       </c>
       <c r="C36" s="6">
-        <v>636</v>
+        <v>172</v>
       </c>
       <c r="D36" s="6">
-        <v>4094</v>
+        <v>3750</v>
       </c>
       <c r="E36" s="6">
-        <v>3756</v>
+        <v>3061</v>
       </c>
       <c r="F36" s="6">
-        <v>2744</v>
+        <v>1581</v>
       </c>
       <c r="G36" s="6">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="H36" s="6">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2025,25 +2013,25 @@
         <v>42</v>
       </c>
       <c r="B37" s="5">
-        <v>8564</v>
+        <v>11490</v>
       </c>
       <c r="C37" s="6">
-        <v>172</v>
+        <v>662</v>
       </c>
       <c r="D37" s="6">
-        <v>3750</v>
+        <v>3664</v>
       </c>
       <c r="E37" s="6">
-        <v>3061</v>
+        <v>4189</v>
       </c>
       <c r="F37" s="6">
-        <v>1581</v>
+        <v>2281</v>
       </c>
       <c r="G37" s="6">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="H37" s="6">
-        <v>0</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2051,25 +2039,25 @@
         <v>43</v>
       </c>
       <c r="B38" s="5">
-        <v>11490</v>
+        <v>40161</v>
       </c>
       <c r="C38" s="6">
-        <v>662</v>
+        <v>3064</v>
       </c>
       <c r="D38" s="6">
-        <v>3664</v>
+        <v>16610</v>
       </c>
       <c r="E38" s="6">
-        <v>4189</v>
+        <v>12596</v>
       </c>
       <c r="F38" s="6">
-        <v>2281</v>
+        <v>4643</v>
       </c>
       <c r="G38" s="6">
-        <v>467</v>
+        <v>1553</v>
       </c>
       <c r="H38" s="6">
-        <v>227</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2077,77 +2065,77 @@
         <v>44</v>
       </c>
       <c r="B39" s="5">
-        <v>40161</v>
+        <v>19756</v>
       </c>
       <c r="C39" s="6">
-        <v>3064</v>
+        <v>1014</v>
       </c>
       <c r="D39" s="6">
-        <v>16610</v>
+        <v>7078</v>
       </c>
       <c r="E39" s="6">
-        <v>12596</v>
+        <v>4805</v>
       </c>
       <c r="F39" s="6">
-        <v>4643</v>
+        <v>3615</v>
       </c>
       <c r="G39" s="6">
-        <v>1553</v>
+        <v>1624</v>
       </c>
       <c r="H39" s="6">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="5">
-        <v>19756</v>
+        <v>27414</v>
       </c>
       <c r="C40" s="6">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="D40" s="6">
-        <v>7078</v>
+        <v>7452</v>
       </c>
       <c r="E40" s="6">
-        <v>4805</v>
+        <v>9910</v>
       </c>
       <c r="F40" s="6">
-        <v>3615</v>
+        <v>7033</v>
       </c>
       <c r="G40" s="6">
-        <v>1624</v>
+        <v>1260</v>
       </c>
       <c r="H40" s="6">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="5">
-        <v>27414</v>
+        <v>16879</v>
       </c>
       <c r="C41" s="6">
-        <v>993</v>
+        <v>879</v>
       </c>
       <c r="D41" s="6">
-        <v>7452</v>
+        <v>5990</v>
       </c>
       <c r="E41" s="6">
-        <v>9910</v>
+        <v>4743</v>
       </c>
       <c r="F41" s="6">
-        <v>7033</v>
+        <v>3110</v>
       </c>
       <c r="G41" s="6">
-        <v>1260</v>
+        <v>1369</v>
       </c>
       <c r="H41" s="6">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2155,25 +2143,25 @@
         <v>47</v>
       </c>
       <c r="B42" s="5">
-        <v>16879</v>
+        <v>15876</v>
       </c>
       <c r="C42" s="6">
-        <v>879</v>
+        <v>629</v>
       </c>
       <c r="D42" s="6">
-        <v>5990</v>
+        <v>4944</v>
       </c>
       <c r="E42" s="6">
-        <v>4743</v>
+        <v>3751</v>
       </c>
       <c r="F42" s="6">
-        <v>3110</v>
+        <v>4875</v>
       </c>
       <c r="G42" s="6">
-        <v>1369</v>
+        <v>1168</v>
       </c>
       <c r="H42" s="6">
-        <v>788</v>
+        <v>509</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,25 +2169,25 @@
         <v>48</v>
       </c>
       <c r="B43" s="5">
-        <v>15876</v>
+        <v>13695</v>
       </c>
       <c r="C43" s="6">
-        <v>629</v>
+        <v>728</v>
       </c>
       <c r="D43" s="6">
-        <v>4944</v>
+        <v>3123</v>
       </c>
       <c r="E43" s="6">
-        <v>3751</v>
+        <v>5420</v>
       </c>
       <c r="F43" s="6">
-        <v>4875</v>
+        <v>3444</v>
       </c>
       <c r="G43" s="6">
-        <v>1168</v>
+        <v>462</v>
       </c>
       <c r="H43" s="6">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2207,77 +2195,77 @@
         <v>49</v>
       </c>
       <c r="B44" s="5">
-        <v>13695</v>
+        <v>22293</v>
       </c>
       <c r="C44" s="6">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="D44" s="6">
-        <v>3123</v>
+        <v>4951</v>
       </c>
       <c r="E44" s="6">
-        <v>5420</v>
+        <v>9517</v>
       </c>
       <c r="F44" s="6">
-        <v>3444</v>
+        <v>5763</v>
       </c>
       <c r="G44" s="6">
-        <v>462</v>
+        <v>927</v>
       </c>
       <c r="H44" s="6">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="5">
-        <v>22293</v>
+        <v>10604</v>
       </c>
       <c r="C45" s="6">
-        <v>749</v>
+        <v>544</v>
       </c>
       <c r="D45" s="6">
-        <v>4951</v>
+        <v>1665</v>
       </c>
       <c r="E45" s="6">
-        <v>9517</v>
+        <v>4607</v>
       </c>
       <c r="F45" s="6">
-        <v>5763</v>
+        <v>2803</v>
       </c>
       <c r="G45" s="6">
-        <v>927</v>
+        <v>735</v>
       </c>
       <c r="H45" s="6">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="5">
-        <v>10604</v>
+        <v>19507</v>
       </c>
       <c r="C46" s="6">
-        <v>544</v>
+        <v>881</v>
       </c>
       <c r="D46" s="6">
-        <v>1665</v>
+        <v>4693</v>
       </c>
       <c r="E46" s="6">
-        <v>4607</v>
+        <v>6290</v>
       </c>
       <c r="F46" s="6">
-        <v>2803</v>
+        <v>5476</v>
       </c>
       <c r="G46" s="6">
-        <v>735</v>
+        <v>1480</v>
       </c>
       <c r="H46" s="6">
-        <v>250</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -2285,25 +2273,25 @@
         <v>52</v>
       </c>
       <c r="B47" s="5">
-        <v>19507</v>
+        <v>11576</v>
       </c>
       <c r="C47" s="6">
-        <v>881</v>
+        <v>696</v>
       </c>
       <c r="D47" s="6">
-        <v>4693</v>
+        <v>4032</v>
       </c>
       <c r="E47" s="6">
-        <v>6290</v>
+        <v>3825</v>
       </c>
       <c r="F47" s="6">
-        <v>5476</v>
+        <v>1944</v>
       </c>
       <c r="G47" s="6">
-        <v>1480</v>
+        <v>729</v>
       </c>
       <c r="H47" s="6">
-        <v>687</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -2311,77 +2299,77 @@
         <v>53</v>
       </c>
       <c r="B48" s="5">
-        <v>11576</v>
+        <v>22301</v>
       </c>
       <c r="C48" s="6">
-        <v>696</v>
+        <v>1051</v>
       </c>
       <c r="D48" s="6">
-        <v>4032</v>
+        <v>6185</v>
       </c>
       <c r="E48" s="6">
-        <v>3825</v>
+        <v>8649</v>
       </c>
       <c r="F48" s="6">
-        <v>1944</v>
+        <v>4692</v>
       </c>
       <c r="G48" s="6">
-        <v>729</v>
+        <v>968</v>
       </c>
       <c r="H48" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B49" s="5">
-        <v>22301</v>
+        <v>17523</v>
       </c>
       <c r="C49" s="6">
-        <v>1051</v>
+        <v>183</v>
       </c>
       <c r="D49" s="6">
-        <v>6185</v>
+        <v>1719</v>
       </c>
       <c r="E49" s="6">
-        <v>8649</v>
+        <v>4281</v>
       </c>
       <c r="F49" s="6">
-        <v>4692</v>
+        <v>8712</v>
       </c>
       <c r="G49" s="6">
-        <v>968</v>
+        <v>2028</v>
       </c>
       <c r="H49" s="6">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B50" s="5">
-        <v>17523</v>
+        <v>29800</v>
       </c>
       <c r="C50" s="6">
-        <v>183</v>
+        <v>2560</v>
       </c>
       <c r="D50" s="6">
-        <v>1719</v>
+        <v>2736</v>
       </c>
       <c r="E50" s="6">
-        <v>4281</v>
+        <v>11044</v>
       </c>
       <c r="F50" s="6">
-        <v>8712</v>
+        <v>10411</v>
       </c>
       <c r="G50" s="6">
-        <v>2028</v>
+        <v>1994</v>
       </c>
       <c r="H50" s="6">
-        <v>600</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -2389,25 +2377,25 @@
         <v>56</v>
       </c>
       <c r="B51" s="5">
-        <v>29800</v>
+        <v>24682</v>
       </c>
       <c r="C51" s="6">
-        <v>2560</v>
+        <v>725</v>
       </c>
       <c r="D51" s="6">
-        <v>2736</v>
+        <v>4370</v>
       </c>
       <c r="E51" s="6">
-        <v>11044</v>
+        <v>6749</v>
       </c>
       <c r="F51" s="6">
-        <v>10411</v>
+        <v>9747</v>
       </c>
       <c r="G51" s="6">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H51" s="6">
-        <v>1055</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -2415,25 +2403,25 @@
         <v>57</v>
       </c>
       <c r="B52" s="5">
-        <v>24682</v>
+        <v>9513</v>
       </c>
       <c r="C52" s="6">
-        <v>725</v>
+        <v>579</v>
       </c>
       <c r="D52" s="6">
-        <v>4370</v>
+        <v>2802</v>
       </c>
       <c r="E52" s="6">
-        <v>6749</v>
+        <v>3434</v>
       </c>
       <c r="F52" s="6">
-        <v>9747</v>
+        <v>2260</v>
       </c>
       <c r="G52" s="6">
-        <v>1990</v>
+        <v>272</v>
       </c>
       <c r="H52" s="6">
-        <v>1101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -2441,77 +2429,77 @@
         <v>58</v>
       </c>
       <c r="B53" s="5">
-        <v>9513</v>
+        <v>9074</v>
       </c>
       <c r="C53" s="6">
-        <v>579</v>
+        <v>607</v>
       </c>
       <c r="D53" s="6">
-        <v>2802</v>
+        <v>2513</v>
       </c>
       <c r="E53" s="6">
-        <v>3434</v>
+        <v>3470</v>
       </c>
       <c r="F53" s="6">
-        <v>2260</v>
+        <v>2041</v>
       </c>
       <c r="G53" s="6">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="H53" s="6">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B54" s="5">
-        <v>9074</v>
+        <v>13842</v>
       </c>
       <c r="C54" s="6">
-        <v>607</v>
+        <v>768</v>
       </c>
       <c r="D54" s="6">
-        <v>2513</v>
+        <v>3825</v>
       </c>
       <c r="E54" s="6">
-        <v>3470</v>
+        <v>5403</v>
       </c>
       <c r="F54" s="6">
-        <v>2041</v>
+        <v>3373</v>
       </c>
       <c r="G54" s="6">
-        <v>304</v>
+        <v>378</v>
       </c>
       <c r="H54" s="6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B55" s="5">
-        <v>13842</v>
+        <v>19111</v>
       </c>
       <c r="C55" s="6">
-        <v>768</v>
+        <v>1311</v>
       </c>
       <c r="D55" s="6">
-        <v>3825</v>
+        <v>4409</v>
       </c>
       <c r="E55" s="6">
-        <v>5403</v>
+        <v>8040</v>
       </c>
       <c r="F55" s="6">
-        <v>3373</v>
+        <v>4293</v>
       </c>
       <c r="G55" s="6">
-        <v>378</v>
+        <v>690</v>
       </c>
       <c r="H55" s="6">
-        <v>95</v>
+        <v>368</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,25 +2507,25 @@
         <v>61</v>
       </c>
       <c r="B56" s="5">
-        <v>19111</v>
+        <v>10526</v>
       </c>
       <c r="C56" s="6">
-        <v>1311</v>
+        <v>749</v>
       </c>
       <c r="D56" s="6">
-        <v>4409</v>
+        <v>3134</v>
       </c>
       <c r="E56" s="6">
-        <v>8040</v>
+        <v>3445</v>
       </c>
       <c r="F56" s="6">
-        <v>4293</v>
+        <v>2567</v>
       </c>
       <c r="G56" s="6">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="H56" s="6">
-        <v>368</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -2545,25 +2533,25 @@
         <v>62</v>
       </c>
       <c r="B57" s="5">
-        <v>10526</v>
+        <v>9324</v>
       </c>
       <c r="C57" s="6">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="D57" s="6">
-        <v>3134</v>
+        <v>3220</v>
       </c>
       <c r="E57" s="6">
-        <v>3445</v>
+        <v>3476</v>
       </c>
       <c r="F57" s="6">
-        <v>2567</v>
+        <v>1677</v>
       </c>
       <c r="G57" s="6">
-        <v>553</v>
+        <v>121</v>
       </c>
       <c r="H57" s="6">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -2571,25 +2559,25 @@
         <v>63</v>
       </c>
       <c r="B58" s="5">
-        <v>9324</v>
+        <v>15495</v>
       </c>
       <c r="C58" s="6">
-        <v>739</v>
+        <v>916</v>
       </c>
       <c r="D58" s="6">
-        <v>3220</v>
+        <v>4896</v>
       </c>
       <c r="E58" s="6">
-        <v>3476</v>
+        <v>5282</v>
       </c>
       <c r="F58" s="6">
-        <v>1677</v>
+        <v>3750</v>
       </c>
       <c r="G58" s="6">
-        <v>121</v>
+        <v>566</v>
       </c>
       <c r="H58" s="6">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -2597,25 +2585,25 @@
         <v>64</v>
       </c>
       <c r="B59" s="5">
-        <v>15495</v>
+        <v>13782</v>
       </c>
       <c r="C59" s="6">
-        <v>916</v>
+        <v>1061</v>
       </c>
       <c r="D59" s="6">
-        <v>4896</v>
+        <v>3186</v>
       </c>
       <c r="E59" s="6">
-        <v>5282</v>
+        <v>6039</v>
       </c>
       <c r="F59" s="6">
-        <v>3750</v>
+        <v>2843</v>
       </c>
       <c r="G59" s="6">
-        <v>566</v>
+        <v>423</v>
       </c>
       <c r="H59" s="6">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2623,77 +2611,77 @@
         <v>65</v>
       </c>
       <c r="B60" s="5">
-        <v>13782</v>
+        <v>7425</v>
       </c>
       <c r="C60" s="6">
-        <v>1061</v>
+        <v>505</v>
       </c>
       <c r="D60" s="6">
-        <v>3186</v>
+        <v>2481</v>
       </c>
       <c r="E60" s="6">
-        <v>6039</v>
+        <v>2566</v>
       </c>
       <c r="F60" s="6">
-        <v>2843</v>
+        <v>1530</v>
       </c>
       <c r="G60" s="6">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="H60" s="6">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B61" s="5">
-        <v>7425</v>
+        <v>22977</v>
       </c>
       <c r="C61" s="6">
-        <v>505</v>
+        <v>1966</v>
       </c>
       <c r="D61" s="6">
-        <v>2481</v>
+        <v>8403</v>
       </c>
       <c r="E61" s="6">
-        <v>2566</v>
+        <v>8171</v>
       </c>
       <c r="F61" s="6">
-        <v>1530</v>
+        <v>3637</v>
       </c>
       <c r="G61" s="6">
-        <v>269</v>
+        <v>598</v>
       </c>
       <c r="H61" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B62" s="5">
-        <v>22977</v>
+        <v>13474</v>
       </c>
       <c r="C62" s="6">
-        <v>1966</v>
+        <v>855</v>
       </c>
       <c r="D62" s="6">
-        <v>8403</v>
+        <v>5420</v>
       </c>
       <c r="E62" s="6">
-        <v>8171</v>
+        <v>4821</v>
       </c>
       <c r="F62" s="6">
-        <v>3637</v>
+        <v>1989</v>
       </c>
       <c r="G62" s="6">
-        <v>598</v>
+        <v>325</v>
       </c>
       <c r="H62" s="6">
-        <v>202</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -2701,77 +2689,77 @@
         <v>68</v>
       </c>
       <c r="B63" s="5">
-        <v>13474</v>
+        <v>13596</v>
       </c>
       <c r="C63" s="6">
-        <v>855</v>
+        <v>1189</v>
       </c>
       <c r="D63" s="6">
-        <v>5420</v>
+        <v>6158</v>
       </c>
       <c r="E63" s="6">
-        <v>4821</v>
+        <v>4746</v>
       </c>
       <c r="F63" s="6">
-        <v>1989</v>
+        <v>1322</v>
       </c>
       <c r="G63" s="6">
-        <v>325</v>
+        <v>148</v>
       </c>
       <c r="H63" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B64" s="5">
-        <v>13596</v>
+        <v>19551</v>
       </c>
       <c r="C64" s="6">
-        <v>1189</v>
+        <v>1154</v>
       </c>
       <c r="D64" s="6">
-        <v>6158</v>
+        <v>7099</v>
       </c>
       <c r="E64" s="6">
-        <v>4746</v>
+        <v>7450</v>
       </c>
       <c r="F64" s="6">
-        <v>1322</v>
+        <v>3217</v>
       </c>
       <c r="G64" s="6">
-        <v>148</v>
+        <v>396</v>
       </c>
       <c r="H64" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B65" s="5">
-        <v>19551</v>
+        <v>8902</v>
       </c>
       <c r="C65" s="6">
-        <v>1154</v>
+        <v>504</v>
       </c>
       <c r="D65" s="6">
-        <v>7099</v>
+        <v>3743</v>
       </c>
       <c r="E65" s="6">
-        <v>7450</v>
+        <v>2825</v>
       </c>
       <c r="F65" s="6">
-        <v>3217</v>
+        <v>1552</v>
       </c>
       <c r="G65" s="6">
-        <v>396</v>
+        <v>162</v>
       </c>
       <c r="H65" s="6">
-        <v>235</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -2779,25 +2767,25 @@
         <v>71</v>
       </c>
       <c r="B66" s="5">
-        <v>8902</v>
+        <v>17952</v>
       </c>
       <c r="C66" s="6">
-        <v>504</v>
+        <v>1669</v>
       </c>
       <c r="D66" s="6">
-        <v>3743</v>
+        <v>6962</v>
       </c>
       <c r="E66" s="6">
-        <v>2825</v>
+        <v>6111</v>
       </c>
       <c r="F66" s="6">
-        <v>1552</v>
+        <v>2708</v>
       </c>
       <c r="G66" s="6">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="H66" s="6">
-        <v>116</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -2805,25 +2793,25 @@
         <v>72</v>
       </c>
       <c r="B67" s="5">
-        <v>17952</v>
+        <v>19607</v>
       </c>
       <c r="C67" s="6">
-        <v>1669</v>
+        <v>1417</v>
       </c>
       <c r="D67" s="6">
-        <v>6962</v>
+        <v>8563</v>
       </c>
       <c r="E67" s="6">
-        <v>6111</v>
+        <v>6106</v>
       </c>
       <c r="F67" s="6">
-        <v>2708</v>
+        <v>2905</v>
       </c>
       <c r="G67" s="6">
-        <v>291</v>
+        <v>406</v>
       </c>
       <c r="H67" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -2831,25 +2819,25 @@
         <v>73</v>
       </c>
       <c r="B68" s="5">
-        <v>19607</v>
+        <v>11640</v>
       </c>
       <c r="C68" s="6">
-        <v>1417</v>
+        <v>772</v>
       </c>
       <c r="D68" s="6">
-        <v>8563</v>
+        <v>5111</v>
       </c>
       <c r="E68" s="6">
-        <v>6106</v>
+        <v>3749</v>
       </c>
       <c r="F68" s="6">
-        <v>2905</v>
+        <v>1427</v>
       </c>
       <c r="G68" s="6">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="H68" s="6">
-        <v>210</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -2857,77 +2845,77 @@
         <v>74</v>
       </c>
       <c r="B69" s="5">
-        <v>11640</v>
+        <v>15163</v>
       </c>
       <c r="C69" s="6">
-        <v>772</v>
+        <v>915</v>
       </c>
       <c r="D69" s="6">
-        <v>5111</v>
+        <v>7191</v>
       </c>
       <c r="E69" s="6">
-        <v>3749</v>
+        <v>4680</v>
       </c>
       <c r="F69" s="6">
-        <v>1427</v>
+        <v>1759</v>
       </c>
       <c r="G69" s="6">
-        <v>432</v>
+        <v>371</v>
       </c>
       <c r="H69" s="6">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B70" s="5">
-        <v>15163</v>
+        <v>12361</v>
       </c>
       <c r="C70" s="6">
-        <v>915</v>
+        <v>856</v>
       </c>
       <c r="D70" s="6">
-        <v>7191</v>
+        <v>4539</v>
       </c>
       <c r="E70" s="6">
-        <v>4680</v>
+        <v>3402</v>
       </c>
       <c r="F70" s="6">
-        <v>1759</v>
+        <v>2364</v>
       </c>
       <c r="G70" s="6">
-        <v>371</v>
+        <v>707</v>
       </c>
       <c r="H70" s="6">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B71" s="5">
-        <v>12361</v>
+        <v>18532</v>
       </c>
       <c r="C71" s="6">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="D71" s="6">
-        <v>4539</v>
+        <v>7739</v>
       </c>
       <c r="E71" s="6">
-        <v>3402</v>
+        <v>7187</v>
       </c>
       <c r="F71" s="6">
-        <v>2364</v>
+        <v>2296</v>
       </c>
       <c r="G71" s="6">
-        <v>707</v>
+        <v>302</v>
       </c>
       <c r="H71" s="6">
-        <v>493</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -2935,25 +2923,25 @@
         <v>77</v>
       </c>
       <c r="B72" s="5">
-        <v>18532</v>
+        <v>14184</v>
       </c>
       <c r="C72" s="6">
-        <v>872</v>
+        <v>799</v>
       </c>
       <c r="D72" s="6">
-        <v>7739</v>
+        <v>5579</v>
       </c>
       <c r="E72" s="6">
-        <v>7187</v>
+        <v>5398</v>
       </c>
       <c r="F72" s="6">
-        <v>2296</v>
+        <v>1889</v>
       </c>
       <c r="G72" s="6">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="H72" s="6">
-        <v>136</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -2961,77 +2949,77 @@
         <v>78</v>
       </c>
       <c r="B73" s="5">
-        <v>14184</v>
+        <v>12868</v>
       </c>
       <c r="C73" s="6">
-        <v>799</v>
+        <v>552</v>
       </c>
       <c r="D73" s="6">
-        <v>5579</v>
+        <v>4207</v>
       </c>
       <c r="E73" s="6">
-        <v>5398</v>
+        <v>4534</v>
       </c>
       <c r="F73" s="6">
-        <v>1889</v>
+        <v>2766</v>
       </c>
       <c r="G73" s="6">
-        <v>319</v>
+        <v>486</v>
       </c>
       <c r="H73" s="6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B74" s="5">
-        <v>12868</v>
+        <v>19896</v>
       </c>
       <c r="C74" s="6">
-        <v>552</v>
+        <v>723</v>
       </c>
       <c r="D74" s="6">
-        <v>4207</v>
+        <v>3880</v>
       </c>
       <c r="E74" s="6">
-        <v>4534</v>
+        <v>7372</v>
       </c>
       <c r="F74" s="6">
-        <v>2766</v>
+        <v>6383</v>
       </c>
       <c r="G74" s="6">
-        <v>486</v>
+        <v>941</v>
       </c>
       <c r="H74" s="6">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B75" s="5">
-        <v>19896</v>
+        <v>13434</v>
       </c>
       <c r="C75" s="6">
-        <v>723</v>
+        <v>536</v>
       </c>
       <c r="D75" s="6">
-        <v>3880</v>
+        <v>7156</v>
       </c>
       <c r="E75" s="6">
-        <v>7372</v>
+        <v>4406</v>
       </c>
       <c r="F75" s="6">
-        <v>6383</v>
+        <v>1160</v>
       </c>
       <c r="G75" s="6">
-        <v>941</v>
+        <v>52</v>
       </c>
       <c r="H75" s="6">
-        <v>597</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3039,25 +3027,25 @@
         <v>81</v>
       </c>
       <c r="B76" s="5">
-        <v>13434</v>
+        <v>12392</v>
       </c>
       <c r="C76" s="6">
-        <v>536</v>
+        <v>564</v>
       </c>
       <c r="D76" s="6">
-        <v>7156</v>
+        <v>4889</v>
       </c>
       <c r="E76" s="6">
-        <v>4406</v>
+        <v>4043</v>
       </c>
       <c r="F76" s="6">
-        <v>1160</v>
+        <v>2348</v>
       </c>
       <c r="G76" s="6">
-        <v>52</v>
+        <v>341</v>
       </c>
       <c r="H76" s="6">
-        <v>124</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3065,129 +3053,129 @@
         <v>82</v>
       </c>
       <c r="B77" s="5">
-        <v>12392</v>
+        <v>9804</v>
       </c>
       <c r="C77" s="6">
-        <v>564</v>
+        <v>412</v>
       </c>
       <c r="D77" s="6">
-        <v>4889</v>
+        <v>3163</v>
       </c>
       <c r="E77" s="6">
-        <v>4043</v>
+        <v>3074</v>
       </c>
       <c r="F77" s="6">
-        <v>2348</v>
+        <v>2557</v>
       </c>
       <c r="G77" s="6">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="H77" s="6">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B78" s="5">
-        <v>9804</v>
+        <v>12045</v>
       </c>
       <c r="C78" s="6">
-        <v>412</v>
+        <v>262</v>
       </c>
       <c r="D78" s="6">
-        <v>3163</v>
+        <v>3759</v>
       </c>
       <c r="E78" s="6">
-        <v>3074</v>
+        <v>3817</v>
       </c>
       <c r="F78" s="6">
-        <v>2557</v>
+        <v>3433</v>
       </c>
       <c r="G78" s="6">
-        <v>355</v>
+        <v>511</v>
       </c>
       <c r="H78" s="6">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B79" s="5">
-        <v>12045</v>
+        <v>19126</v>
       </c>
       <c r="C79" s="6">
-        <v>262</v>
+        <v>418</v>
       </c>
       <c r="D79" s="6">
-        <v>3759</v>
+        <v>6316</v>
       </c>
       <c r="E79" s="6">
-        <v>3817</v>
+        <v>6341</v>
       </c>
       <c r="F79" s="6">
-        <v>3433</v>
+        <v>5615</v>
       </c>
       <c r="G79" s="6">
-        <v>511</v>
+        <v>232</v>
       </c>
       <c r="H79" s="6">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="5">
-        <v>19126</v>
+        <v>17970</v>
       </c>
       <c r="C80" s="6">
         <v>418</v>
       </c>
       <c r="D80" s="6">
-        <v>6316</v>
+        <v>2986</v>
       </c>
       <c r="E80" s="6">
-        <v>6341</v>
+        <v>5891</v>
       </c>
       <c r="F80" s="6">
-        <v>5615</v>
+        <v>6914</v>
       </c>
       <c r="G80" s="6">
-        <v>232</v>
+        <v>1105</v>
       </c>
       <c r="H80" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="5">
-        <v>17970</v>
+        <v>14336</v>
       </c>
       <c r="C81" s="6">
-        <v>418</v>
+        <v>866</v>
       </c>
       <c r="D81" s="6">
-        <v>2986</v>
+        <v>6323</v>
       </c>
       <c r="E81" s="6">
-        <v>5891</v>
+        <v>4774</v>
       </c>
       <c r="F81" s="6">
-        <v>6914</v>
+        <v>2061</v>
       </c>
       <c r="G81" s="6">
-        <v>1105</v>
+        <v>257</v>
       </c>
       <c r="H81" s="6">
-        <v>656</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -3195,129 +3183,129 @@
         <v>87</v>
       </c>
       <c r="B82" s="5">
-        <v>14336</v>
+        <v>10295</v>
       </c>
       <c r="C82" s="6">
-        <v>866</v>
+        <v>216</v>
       </c>
       <c r="D82" s="6">
-        <v>6323</v>
+        <v>993</v>
       </c>
       <c r="E82" s="6">
-        <v>4774</v>
+        <v>2829</v>
       </c>
       <c r="F82" s="6">
-        <v>2061</v>
+        <v>4698</v>
       </c>
       <c r="G82" s="6">
-        <v>257</v>
+        <v>1119</v>
       </c>
       <c r="H82" s="6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B83" s="5">
-        <v>10295</v>
+        <v>10527</v>
       </c>
       <c r="C83" s="6">
-        <v>216</v>
+        <v>322</v>
       </c>
       <c r="D83" s="6">
-        <v>993</v>
+        <v>3204</v>
       </c>
       <c r="E83" s="6">
-        <v>2829</v>
+        <v>3011</v>
       </c>
       <c r="F83" s="6">
-        <v>4698</v>
+        <v>3018</v>
       </c>
       <c r="G83" s="6">
-        <v>1119</v>
+        <v>626</v>
       </c>
       <c r="H83" s="6">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B84" s="5">
-        <v>10527</v>
+        <v>12094</v>
       </c>
       <c r="C84" s="6">
-        <v>322</v>
+        <v>845</v>
       </c>
       <c r="D84" s="6">
-        <v>3204</v>
+        <v>4892</v>
       </c>
       <c r="E84" s="6">
-        <v>3011</v>
+        <v>3683</v>
       </c>
       <c r="F84" s="6">
-        <v>3018</v>
+        <v>1990</v>
       </c>
       <c r="G84" s="6">
-        <v>626</v>
+        <v>444</v>
       </c>
       <c r="H84" s="6">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B85" s="5">
-        <v>12094</v>
+        <v>12392</v>
       </c>
       <c r="C85" s="6">
-        <v>845</v>
+        <v>483</v>
       </c>
       <c r="D85" s="6">
-        <v>4892</v>
+        <v>1953</v>
       </c>
       <c r="E85" s="6">
-        <v>3683</v>
+        <v>3776</v>
       </c>
       <c r="F85" s="6">
-        <v>1990</v>
+        <v>4867</v>
       </c>
       <c r="G85" s="6">
-        <v>444</v>
+        <v>835</v>
       </c>
       <c r="H85" s="6">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B86" s="5">
-        <v>12392</v>
+        <v>22375</v>
       </c>
       <c r="C86" s="6">
-        <v>483</v>
+        <v>1096</v>
       </c>
       <c r="D86" s="6">
-        <v>1953</v>
+        <v>6158</v>
       </c>
       <c r="E86" s="6">
-        <v>3776</v>
+        <v>6626</v>
       </c>
       <c r="F86" s="6">
-        <v>4867</v>
+        <v>6337</v>
       </c>
       <c r="G86" s="6">
-        <v>835</v>
+        <v>1339</v>
       </c>
       <c r="H86" s="6">
-        <v>478</v>
+        <v>819</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -3325,25 +3313,25 @@
         <v>92</v>
       </c>
       <c r="B87" s="5">
-        <v>22375</v>
+        <v>16294</v>
       </c>
       <c r="C87" s="6">
-        <v>1096</v>
+        <v>508</v>
       </c>
       <c r="D87" s="6">
-        <v>6158</v>
+        <v>3685</v>
       </c>
       <c r="E87" s="6">
-        <v>6626</v>
+        <v>4187</v>
       </c>
       <c r="F87" s="6">
-        <v>6337</v>
+        <v>5886</v>
       </c>
       <c r="G87" s="6">
-        <v>1339</v>
+        <v>1223</v>
       </c>
       <c r="H87" s="6">
-        <v>819</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -3351,129 +3339,129 @@
         <v>93</v>
       </c>
       <c r="B88" s="5">
-        <v>16294</v>
+        <v>42753</v>
       </c>
       <c r="C88" s="6">
-        <v>508</v>
+        <v>8655</v>
       </c>
       <c r="D88" s="6">
-        <v>3685</v>
+        <v>20601</v>
       </c>
       <c r="E88" s="6">
-        <v>4187</v>
+        <v>9446</v>
       </c>
       <c r="F88" s="6">
-        <v>5886</v>
+        <v>2871</v>
       </c>
       <c r="G88" s="6">
-        <v>1223</v>
+        <v>814</v>
       </c>
       <c r="H88" s="6">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B89" s="5">
-        <v>541</v>
+        <v>22289</v>
       </c>
       <c r="C89" s="6">
-        <v>97</v>
+        <v>2452</v>
       </c>
       <c r="D89" s="6">
-        <v>226</v>
+        <v>9229</v>
       </c>
       <c r="E89" s="6">
-        <v>175</v>
+        <v>7959</v>
       </c>
       <c r="F89" s="6">
-        <v>6</v>
+        <v>1866</v>
       </c>
       <c r="G89" s="6">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="H89" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B90" s="5">
-        <v>42753</v>
+        <v>22827</v>
       </c>
       <c r="C90" s="6">
-        <v>8655</v>
+        <v>5442</v>
       </c>
       <c r="D90" s="6">
-        <v>20601</v>
+        <v>9288</v>
       </c>
       <c r="E90" s="6">
-        <v>9446</v>
+        <v>5996</v>
       </c>
       <c r="F90" s="6">
-        <v>2871</v>
+        <v>1710</v>
       </c>
       <c r="G90" s="6">
-        <v>814</v>
+        <v>355</v>
       </c>
       <c r="H90" s="6">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B91" s="5">
-        <v>22289</v>
+        <v>24527</v>
       </c>
       <c r="C91" s="6">
-        <v>2452</v>
+        <v>5448</v>
       </c>
       <c r="D91" s="6">
-        <v>9229</v>
+        <v>10640</v>
       </c>
       <c r="E91" s="6">
-        <v>7959</v>
+        <v>6545</v>
       </c>
       <c r="F91" s="6">
-        <v>1866</v>
+        <v>1677</v>
       </c>
       <c r="G91" s="6">
-        <v>498</v>
+        <v>168</v>
       </c>
       <c r="H91" s="6">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="5">
-        <v>22827</v>
+        <v>20077</v>
       </c>
       <c r="C92" s="6">
-        <v>5442</v>
+        <v>2227</v>
       </c>
       <c r="D92" s="6">
-        <v>9288</v>
+        <v>8669</v>
       </c>
       <c r="E92" s="6">
-        <v>5996</v>
+        <v>6958</v>
       </c>
       <c r="F92" s="6">
-        <v>1710</v>
+        <v>1917</v>
       </c>
       <c r="G92" s="6">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="H92" s="6">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -3481,51 +3469,51 @@
         <v>98</v>
       </c>
       <c r="B93" s="5">
-        <v>24527</v>
+        <v>32183</v>
       </c>
       <c r="C93" s="6">
-        <v>5448</v>
+        <v>2984</v>
       </c>
       <c r="D93" s="6">
-        <v>10640</v>
+        <v>10353</v>
       </c>
       <c r="E93" s="6">
-        <v>6545</v>
+        <v>12678</v>
       </c>
       <c r="F93" s="6">
-        <v>1677</v>
+        <v>5507</v>
       </c>
       <c r="G93" s="6">
-        <v>168</v>
+        <v>530</v>
       </c>
       <c r="H93" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B94" s="5">
-        <v>20077</v>
+        <v>44737</v>
       </c>
       <c r="C94" s="6">
-        <v>2227</v>
+        <v>10252</v>
       </c>
       <c r="D94" s="6">
-        <v>8669</v>
+        <v>21201</v>
       </c>
       <c r="E94" s="6">
-        <v>6958</v>
+        <v>9435</v>
       </c>
       <c r="F94" s="6">
-        <v>1917</v>
+        <v>3173</v>
       </c>
       <c r="G94" s="6">
-        <v>251</v>
+        <v>470</v>
       </c>
       <c r="H94" s="6">
-        <v>55</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -3533,51 +3521,51 @@
         <v>100</v>
       </c>
       <c r="B95" s="5">
-        <v>32183</v>
+        <v>29994</v>
       </c>
       <c r="C95" s="6">
-        <v>2984</v>
+        <v>7220</v>
       </c>
       <c r="D95" s="6">
-        <v>10353</v>
+        <v>15699</v>
       </c>
       <c r="E95" s="6">
-        <v>12678</v>
+        <v>5740</v>
       </c>
       <c r="F95" s="6">
-        <v>5507</v>
+        <v>995</v>
       </c>
       <c r="G95" s="6">
-        <v>530</v>
+        <v>203</v>
       </c>
       <c r="H95" s="6">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B96" s="5">
-        <v>44737</v>
+        <v>21396</v>
       </c>
       <c r="C96" s="6">
-        <v>10252</v>
+        <v>4879</v>
       </c>
       <c r="D96" s="6">
-        <v>21201</v>
+        <v>10488</v>
       </c>
       <c r="E96" s="6">
-        <v>9435</v>
+        <v>4708</v>
       </c>
       <c r="F96" s="6">
-        <v>3173</v>
+        <v>1036</v>
       </c>
       <c r="G96" s="6">
-        <v>470</v>
+        <v>170</v>
       </c>
       <c r="H96" s="6">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -3585,25 +3573,25 @@
         <v>102</v>
       </c>
       <c r="B97" s="5">
-        <v>29994</v>
+        <v>36964</v>
       </c>
       <c r="C97" s="6">
-        <v>7220</v>
+        <v>7088</v>
       </c>
       <c r="D97" s="6">
-        <v>15699</v>
+        <v>17464</v>
       </c>
       <c r="E97" s="6">
-        <v>5740</v>
+        <v>9310</v>
       </c>
       <c r="F97" s="6">
-        <v>995</v>
+        <v>2437</v>
       </c>
       <c r="G97" s="6">
-        <v>203</v>
+        <v>484</v>
       </c>
       <c r="H97" s="6">
-        <v>137</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -3611,25 +3599,25 @@
         <v>103</v>
       </c>
       <c r="B98" s="5">
-        <v>21396</v>
+        <v>30756</v>
       </c>
       <c r="C98" s="6">
-        <v>4879</v>
+        <v>6805</v>
       </c>
       <c r="D98" s="6">
-        <v>10488</v>
+        <v>15900</v>
       </c>
       <c r="E98" s="6">
-        <v>4708</v>
+        <v>5677</v>
       </c>
       <c r="F98" s="6">
-        <v>1036</v>
+        <v>2068</v>
       </c>
       <c r="G98" s="6">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="H98" s="6">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -3637,51 +3625,51 @@
         <v>104</v>
       </c>
       <c r="B99" s="5">
-        <v>36964</v>
+        <v>17277</v>
       </c>
       <c r="C99" s="6">
-        <v>7088</v>
+        <v>4594</v>
       </c>
       <c r="D99" s="6">
-        <v>17464</v>
+        <v>8115</v>
       </c>
       <c r="E99" s="6">
-        <v>9310</v>
+        <v>3358</v>
       </c>
       <c r="F99" s="6">
-        <v>2437</v>
+        <v>1059</v>
       </c>
       <c r="G99" s="6">
-        <v>484</v>
+        <v>100</v>
       </c>
       <c r="H99" s="6">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>105</v>
       </c>
       <c r="B100" s="5">
-        <v>30756</v>
+        <v>10891</v>
       </c>
       <c r="C100" s="6">
-        <v>6805</v>
+        <v>94</v>
       </c>
       <c r="D100" s="6">
-        <v>15900</v>
+        <v>4958</v>
       </c>
       <c r="E100" s="6">
-        <v>5677</v>
+        <v>4897</v>
       </c>
       <c r="F100" s="6">
-        <v>2068</v>
+        <v>820</v>
       </c>
       <c r="G100" s="6">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c r="H100" s="6">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,51 +3677,51 @@
         <v>106</v>
       </c>
       <c r="B101" s="5">
-        <v>17277</v>
+        <v>75158</v>
       </c>
       <c r="C101" s="6">
-        <v>4594</v>
+        <v>10596</v>
       </c>
       <c r="D101" s="6">
-        <v>8115</v>
+        <v>28519</v>
       </c>
       <c r="E101" s="6">
-        <v>3358</v>
+        <v>22164</v>
       </c>
       <c r="F101" s="6">
-        <v>1059</v>
+        <v>9733</v>
       </c>
       <c r="G101" s="6">
-        <v>100</v>
+        <v>2978</v>
       </c>
       <c r="H101" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B102" s="5">
-        <v>10891</v>
+        <v>39628</v>
       </c>
       <c r="C102" s="6">
-        <v>94</v>
+        <v>6241</v>
       </c>
       <c r="D102" s="6">
-        <v>4958</v>
+        <v>18109</v>
       </c>
       <c r="E102" s="6">
-        <v>4897</v>
+        <v>10944</v>
       </c>
       <c r="F102" s="6">
-        <v>820</v>
+        <v>3487</v>
       </c>
       <c r="G102" s="6">
-        <v>122</v>
+        <v>495</v>
       </c>
       <c r="H102" s="6">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -3741,25 +3729,25 @@
         <v>108</v>
       </c>
       <c r="B103" s="5">
-        <v>75158</v>
+        <v>52158</v>
       </c>
       <c r="C103" s="6">
-        <v>10596</v>
+        <v>9894</v>
       </c>
       <c r="D103" s="6">
-        <v>28519</v>
+        <v>23865</v>
       </c>
       <c r="E103" s="6">
-        <v>22164</v>
+        <v>12826</v>
       </c>
       <c r="F103" s="6">
-        <v>9733</v>
+        <v>4362</v>
       </c>
       <c r="G103" s="6">
-        <v>2978</v>
+        <v>693</v>
       </c>
       <c r="H103" s="6">
-        <v>1168</v>
+        <v>518</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -3767,25 +3755,25 @@
         <v>109</v>
       </c>
       <c r="B104" s="5">
-        <v>39628</v>
+        <v>48567</v>
       </c>
       <c r="C104" s="6">
-        <v>6241</v>
+        <v>8671</v>
       </c>
       <c r="D104" s="6">
-        <v>18109</v>
+        <v>23661</v>
       </c>
       <c r="E104" s="6">
-        <v>10944</v>
+        <v>11839</v>
       </c>
       <c r="F104" s="6">
-        <v>3487</v>
+        <v>3204</v>
       </c>
       <c r="G104" s="6">
-        <v>495</v>
+        <v>777</v>
       </c>
       <c r="H104" s="6">
-        <v>352</v>
+        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
@@ -3793,25 +3781,25 @@
         <v>110</v>
       </c>
       <c r="B105" s="5">
-        <v>52158</v>
+        <v>37543</v>
       </c>
       <c r="C105" s="6">
-        <v>9894</v>
+        <v>2980</v>
       </c>
       <c r="D105" s="6">
-        <v>23865</v>
+        <v>12317</v>
       </c>
       <c r="E105" s="6">
-        <v>12826</v>
+        <v>11669</v>
       </c>
       <c r="F105" s="6">
-        <v>4362</v>
+        <v>6669</v>
       </c>
       <c r="G105" s="6">
-        <v>693</v>
+        <v>2951</v>
       </c>
       <c r="H105" s="6">
-        <v>518</v>
+        <v>957</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -3819,25 +3807,25 @@
         <v>111</v>
       </c>
       <c r="B106" s="5">
-        <v>48567</v>
+        <v>20727</v>
       </c>
       <c r="C106" s="6">
-        <v>8671</v>
+        <v>1835</v>
       </c>
       <c r="D106" s="6">
-        <v>23661</v>
+        <v>5831</v>
       </c>
       <c r="E106" s="6">
-        <v>11839</v>
+        <v>6690</v>
       </c>
       <c r="F106" s="6">
-        <v>3204</v>
+        <v>4292</v>
       </c>
       <c r="G106" s="6">
-        <v>777</v>
+        <v>1540</v>
       </c>
       <c r="H106" s="6">
-        <v>415</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -3845,25 +3833,25 @@
         <v>112</v>
       </c>
       <c r="B107" s="5">
-        <v>37543</v>
+        <v>8810</v>
       </c>
       <c r="C107" s="6">
-        <v>2980</v>
+        <v>613</v>
       </c>
       <c r="D107" s="6">
-        <v>12317</v>
+        <v>2015</v>
       </c>
       <c r="E107" s="6">
-        <v>11669</v>
+        <v>3757</v>
       </c>
       <c r="F107" s="6">
-        <v>6669</v>
+        <v>1683</v>
       </c>
       <c r="G107" s="6">
-        <v>2951</v>
+        <v>545</v>
       </c>
       <c r="H107" s="6">
-        <v>957</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -3871,51 +3859,51 @@
         <v>113</v>
       </c>
       <c r="B108" s="5">
-        <v>20727</v>
+        <v>21908</v>
       </c>
       <c r="C108" s="6">
-        <v>1835</v>
+        <v>1538</v>
       </c>
       <c r="D108" s="6">
-        <v>5831</v>
+        <v>6882</v>
       </c>
       <c r="E108" s="6">
-        <v>6690</v>
+        <v>8729</v>
       </c>
       <c r="F108" s="6">
-        <v>4292</v>
+        <v>4021</v>
       </c>
       <c r="G108" s="6">
-        <v>1540</v>
+        <v>583</v>
       </c>
       <c r="H108" s="6">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B109" s="5">
-        <v>8810</v>
+        <v>37771</v>
       </c>
       <c r="C109" s="6">
-        <v>613</v>
+        <v>3975</v>
       </c>
       <c r="D109" s="6">
-        <v>2015</v>
+        <v>12815</v>
       </c>
       <c r="E109" s="6">
-        <v>3757</v>
+        <v>14000</v>
       </c>
       <c r="F109" s="6">
-        <v>1683</v>
+        <v>5161</v>
       </c>
       <c r="G109" s="6">
-        <v>545</v>
+        <v>1239</v>
       </c>
       <c r="H109" s="6">
-        <v>197</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -3923,51 +3911,51 @@
         <v>115</v>
       </c>
       <c r="B110" s="5">
-        <v>21908</v>
+        <v>21560</v>
       </c>
       <c r="C110" s="6">
-        <v>1538</v>
+        <v>1858</v>
       </c>
       <c r="D110" s="6">
-        <v>6882</v>
+        <v>6118</v>
       </c>
       <c r="E110" s="6">
-        <v>8729</v>
+        <v>8923</v>
       </c>
       <c r="F110" s="6">
-        <v>4021</v>
+        <v>3289</v>
       </c>
       <c r="G110" s="6">
-        <v>583</v>
+        <v>948</v>
       </c>
       <c r="H110" s="6">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B111" s="5">
-        <v>37771</v>
+        <v>24934</v>
       </c>
       <c r="C111" s="6">
-        <v>3975</v>
+        <v>2653</v>
       </c>
       <c r="D111" s="6">
-        <v>12815</v>
+        <v>8136</v>
       </c>
       <c r="E111" s="6">
-        <v>14000</v>
+        <v>9576</v>
       </c>
       <c r="F111" s="6">
-        <v>5161</v>
+        <v>3763</v>
       </c>
       <c r="G111" s="6">
-        <v>1239</v>
+        <v>637</v>
       </c>
       <c r="H111" s="6">
-        <v>581</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -3975,25 +3963,25 @@
         <v>117</v>
       </c>
       <c r="B112" s="5">
-        <v>21560</v>
+        <v>24283</v>
       </c>
       <c r="C112" s="6">
-        <v>1858</v>
+        <v>2084</v>
       </c>
       <c r="D112" s="6">
-        <v>6118</v>
+        <v>6802</v>
       </c>
       <c r="E112" s="6">
-        <v>8923</v>
+        <v>10744</v>
       </c>
       <c r="F112" s="6">
-        <v>3289</v>
+        <v>4106</v>
       </c>
       <c r="G112" s="6">
-        <v>948</v>
+        <v>378</v>
       </c>
       <c r="H112" s="6">
-        <v>424</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -4001,25 +3989,25 @@
         <v>118</v>
       </c>
       <c r="B113" s="5">
-        <v>24934</v>
+        <v>19124</v>
       </c>
       <c r="C113" s="6">
-        <v>2653</v>
+        <v>838</v>
       </c>
       <c r="D113" s="6">
-        <v>8136</v>
+        <v>9331</v>
       </c>
       <c r="E113" s="6">
-        <v>9576</v>
+        <v>6974</v>
       </c>
       <c r="F113" s="6">
-        <v>3763</v>
+        <v>1718</v>
       </c>
       <c r="G113" s="6">
-        <v>637</v>
+        <v>181</v>
       </c>
       <c r="H113" s="6">
-        <v>169</v>
+        <v>82</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -4027,25 +4015,25 @@
         <v>119</v>
       </c>
       <c r="B114" s="5">
-        <v>24283</v>
+        <v>27031</v>
       </c>
       <c r="C114" s="6">
-        <v>2084</v>
+        <v>1456</v>
       </c>
       <c r="D114" s="6">
-        <v>6802</v>
+        <v>12283</v>
       </c>
       <c r="E114" s="6">
-        <v>10744</v>
+        <v>9217</v>
       </c>
       <c r="F114" s="6">
-        <v>4106</v>
+        <v>3508</v>
       </c>
       <c r="G114" s="6">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="H114" s="6">
-        <v>169</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -4053,51 +4041,51 @@
         <v>120</v>
       </c>
       <c r="B115" s="5">
-        <v>19124</v>
+        <v>30936</v>
       </c>
       <c r="C115" s="6">
-        <v>838</v>
+        <v>1674</v>
       </c>
       <c r="D115" s="6">
-        <v>9331</v>
+        <v>9248</v>
       </c>
       <c r="E115" s="6">
-        <v>6974</v>
+        <v>12206</v>
       </c>
       <c r="F115" s="6">
-        <v>1718</v>
+        <v>6333</v>
       </c>
       <c r="G115" s="6">
-        <v>181</v>
+        <v>1111</v>
       </c>
       <c r="H115" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="5">
-        <v>27031</v>
+        <v>7678</v>
       </c>
       <c r="C116" s="6">
-        <v>1456</v>
+        <v>428</v>
       </c>
       <c r="D116" s="6">
-        <v>12283</v>
+        <v>2854</v>
       </c>
       <c r="E116" s="6">
-        <v>9217</v>
+        <v>3114</v>
       </c>
       <c r="F116" s="6">
-        <v>3508</v>
+        <v>1041</v>
       </c>
       <c r="G116" s="6">
-        <v>435</v>
+        <v>160</v>
       </c>
       <c r="H116" s="6">
-        <v>132</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -4105,25 +4093,25 @@
         <v>122</v>
       </c>
       <c r="B117" s="5">
-        <v>30936</v>
+        <v>36902</v>
       </c>
       <c r="C117" s="6">
-        <v>1674</v>
+        <v>1911</v>
       </c>
       <c r="D117" s="6">
-        <v>9248</v>
+        <v>15090</v>
       </c>
       <c r="E117" s="6">
-        <v>12206</v>
+        <v>13584</v>
       </c>
       <c r="F117" s="6">
-        <v>6333</v>
+        <v>4943</v>
       </c>
       <c r="G117" s="6">
-        <v>1111</v>
+        <v>816</v>
       </c>
       <c r="H117" s="6">
-        <v>364</v>
+        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -4131,77 +4119,77 @@
         <v>123</v>
       </c>
       <c r="B118" s="5">
-        <v>10</v>
+        <v>12071</v>
       </c>
       <c r="C118" s="6">
-        <v>0</v>
+        <v>1109</v>
       </c>
       <c r="D118" s="6">
-        <v>0</v>
+        <v>4448</v>
       </c>
       <c r="E118" s="6">
-        <v>0</v>
+        <v>4224</v>
       </c>
       <c r="F118" s="6">
-        <v>10</v>
+        <v>1753</v>
       </c>
       <c r="G118" s="6">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H118" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B119" s="5">
-        <v>7678</v>
+        <v>22399</v>
       </c>
       <c r="C119" s="6">
-        <v>428</v>
+        <v>1083</v>
       </c>
       <c r="D119" s="6">
-        <v>2854</v>
+        <v>6291</v>
       </c>
       <c r="E119" s="6">
-        <v>3114</v>
+        <v>9620</v>
       </c>
       <c r="F119" s="6">
-        <v>1041</v>
+        <v>3997</v>
       </c>
       <c r="G119" s="6">
-        <v>160</v>
+        <v>1016</v>
       </c>
       <c r="H119" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B120" s="5">
-        <v>36902</v>
+        <v>28710</v>
       </c>
       <c r="C120" s="6">
-        <v>1911</v>
+        <v>2519</v>
       </c>
       <c r="D120" s="6">
-        <v>15090</v>
+        <v>13778</v>
       </c>
       <c r="E120" s="6">
-        <v>13584</v>
+        <v>9080</v>
       </c>
       <c r="F120" s="6">
-        <v>4943</v>
+        <v>2672</v>
       </c>
       <c r="G120" s="6">
-        <v>816</v>
+        <v>362</v>
       </c>
       <c r="H120" s="6">
-        <v>558</v>
+        <v>299</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -4209,25 +4197,25 @@
         <v>126</v>
       </c>
       <c r="B121" s="5">
-        <v>12071</v>
+        <v>8954</v>
       </c>
       <c r="C121" s="6">
-        <v>1109</v>
+        <v>820</v>
       </c>
       <c r="D121" s="6">
-        <v>4448</v>
+        <v>2414</v>
       </c>
       <c r="E121" s="6">
-        <v>4224</v>
+        <v>2694</v>
       </c>
       <c r="F121" s="6">
-        <v>1753</v>
+        <v>2458</v>
       </c>
       <c r="G121" s="6">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H121" s="6">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
@@ -4235,25 +4223,25 @@
         <v>127</v>
       </c>
       <c r="B122" s="5">
-        <v>22399</v>
+        <v>17344</v>
       </c>
       <c r="C122" s="6">
-        <v>1083</v>
+        <v>1218</v>
       </c>
       <c r="D122" s="6">
-        <v>6291</v>
+        <v>6538</v>
       </c>
       <c r="E122" s="6">
-        <v>9620</v>
+        <v>5326</v>
       </c>
       <c r="F122" s="6">
-        <v>3997</v>
+        <v>3416</v>
       </c>
       <c r="G122" s="6">
-        <v>1016</v>
+        <v>498</v>
       </c>
       <c r="H122" s="6">
-        <v>392</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -4261,51 +4249,51 @@
         <v>128</v>
       </c>
       <c r="B123" s="5">
-        <v>173</v>
+        <v>12554</v>
       </c>
       <c r="C123" s="6">
-        <v>10</v>
+        <v>555</v>
       </c>
       <c r="D123" s="6">
-        <v>29</v>
+        <v>2456</v>
       </c>
       <c r="E123" s="6">
-        <v>63</v>
+        <v>4581</v>
       </c>
       <c r="F123" s="6">
-        <v>40</v>
+        <v>3550</v>
       </c>
       <c r="G123" s="6">
-        <v>22</v>
+        <v>934</v>
       </c>
       <c r="H123" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B124" s="5">
-        <v>28710</v>
+        <v>6954</v>
       </c>
       <c r="C124" s="6">
-        <v>2519</v>
+        <v>268</v>
       </c>
       <c r="D124" s="6">
-        <v>13778</v>
+        <v>962</v>
       </c>
       <c r="E124" s="6">
-        <v>9080</v>
+        <v>1818</v>
       </c>
       <c r="F124" s="6">
-        <v>2672</v>
+        <v>2969</v>
       </c>
       <c r="G124" s="6">
-        <v>362</v>
+        <v>648</v>
       </c>
       <c r="H124" s="6">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -4313,25 +4301,25 @@
         <v>130</v>
       </c>
       <c r="B125" s="5">
-        <v>8954</v>
+        <v>39188</v>
       </c>
       <c r="C125" s="6">
-        <v>820</v>
+        <v>2713</v>
       </c>
       <c r="D125" s="6">
-        <v>2414</v>
+        <v>14728</v>
       </c>
       <c r="E125" s="6">
-        <v>2694</v>
+        <v>13093</v>
       </c>
       <c r="F125" s="6">
-        <v>2458</v>
+        <v>6641</v>
       </c>
       <c r="G125" s="6">
-        <v>357</v>
+        <v>1284</v>
       </c>
       <c r="H125" s="6">
-        <v>211</v>
+        <v>729</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -4339,25 +4327,25 @@
         <v>131</v>
       </c>
       <c r="B126" s="5">
-        <v>17344</v>
+        <v>17398</v>
       </c>
       <c r="C126" s="6">
-        <v>1218</v>
+        <v>1180</v>
       </c>
       <c r="D126" s="6">
-        <v>6538</v>
+        <v>4236</v>
       </c>
       <c r="E126" s="6">
-        <v>5326</v>
+        <v>6290</v>
       </c>
       <c r="F126" s="6">
-        <v>3416</v>
+        <v>4770</v>
       </c>
       <c r="G126" s="6">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="H126" s="6">
-        <v>348</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
@@ -4365,25 +4353,25 @@
         <v>132</v>
       </c>
       <c r="B127" s="5">
-        <v>12554</v>
+        <v>29251</v>
       </c>
       <c r="C127" s="6">
-        <v>555</v>
+        <v>3357</v>
       </c>
       <c r="D127" s="6">
-        <v>2456</v>
+        <v>11441</v>
       </c>
       <c r="E127" s="6">
-        <v>4581</v>
+        <v>8443</v>
       </c>
       <c r="F127" s="6">
-        <v>3550</v>
+        <v>4436</v>
       </c>
       <c r="G127" s="6">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="H127" s="6">
-        <v>478</v>
+        <v>619</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -4391,25 +4379,25 @@
         <v>133</v>
       </c>
       <c r="B128" s="5">
-        <v>6954</v>
+        <v>12546</v>
       </c>
       <c r="C128" s="6">
-        <v>268</v>
+        <v>158</v>
       </c>
       <c r="D128" s="6">
-        <v>962</v>
+        <v>1547</v>
       </c>
       <c r="E128" s="6">
-        <v>1818</v>
+        <v>5256</v>
       </c>
       <c r="F128" s="6">
-        <v>2969</v>
+        <v>4608</v>
       </c>
       <c r="G128" s="6">
-        <v>648</v>
+        <v>527</v>
       </c>
       <c r="H128" s="6">
-        <v>289</v>
+        <v>450</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
@@ -4417,25 +4405,25 @@
         <v>134</v>
       </c>
       <c r="B129" s="5">
-        <v>39188</v>
+        <v>25836</v>
       </c>
       <c r="C129" s="6">
-        <v>2713</v>
+        <v>622</v>
       </c>
       <c r="D129" s="6">
-        <v>14728</v>
+        <v>3705</v>
       </c>
       <c r="E129" s="6">
-        <v>13093</v>
+        <v>14120</v>
       </c>
       <c r="F129" s="6">
-        <v>6641</v>
+        <v>5939</v>
       </c>
       <c r="G129" s="6">
-        <v>1284</v>
+        <v>871</v>
       </c>
       <c r="H129" s="6">
-        <v>729</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -4443,25 +4431,25 @@
         <v>135</v>
       </c>
       <c r="B130" s="5">
-        <v>17398</v>
+        <v>16003</v>
       </c>
       <c r="C130" s="6">
-        <v>1180</v>
+        <v>551</v>
       </c>
       <c r="D130" s="6">
-        <v>4236</v>
+        <v>2344</v>
       </c>
       <c r="E130" s="6">
-        <v>6290</v>
+        <v>6009</v>
       </c>
       <c r="F130" s="6">
-        <v>4770</v>
+        <v>5680</v>
       </c>
       <c r="G130" s="6">
-        <v>596</v>
+        <v>919</v>
       </c>
       <c r="H130" s="6">
-        <v>326</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -4469,25 +4457,25 @@
         <v>136</v>
       </c>
       <c r="B131" s="5">
-        <v>29251</v>
+        <v>11809</v>
       </c>
       <c r="C131" s="6">
-        <v>3357</v>
+        <v>148</v>
       </c>
       <c r="D131" s="6">
-        <v>11441</v>
+        <v>2311</v>
       </c>
       <c r="E131" s="6">
-        <v>8443</v>
+        <v>4937</v>
       </c>
       <c r="F131" s="6">
-        <v>4436</v>
+        <v>3354</v>
       </c>
       <c r="G131" s="6">
-        <v>955</v>
+        <v>635</v>
       </c>
       <c r="H131" s="6">
-        <v>619</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -4495,25 +4483,25 @@
         <v>137</v>
       </c>
       <c r="B132" s="5">
-        <v>12546</v>
+        <v>41717</v>
       </c>
       <c r="C132" s="6">
-        <v>158</v>
+        <v>3581</v>
       </c>
       <c r="D132" s="6">
-        <v>1547</v>
+        <v>15954</v>
       </c>
       <c r="E132" s="6">
-        <v>5256</v>
+        <v>13916</v>
       </c>
       <c r="F132" s="6">
-        <v>4608</v>
+        <v>6161</v>
       </c>
       <c r="G132" s="6">
-        <v>527</v>
+        <v>1372</v>
       </c>
       <c r="H132" s="6">
-        <v>450</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -4521,25 +4509,25 @@
         <v>138</v>
       </c>
       <c r="B133" s="5">
-        <v>25836</v>
+        <v>12986</v>
       </c>
       <c r="C133" s="6">
-        <v>622</v>
+        <v>967</v>
       </c>
       <c r="D133" s="6">
-        <v>3705</v>
+        <v>5637</v>
       </c>
       <c r="E133" s="6">
-        <v>14120</v>
+        <v>3641</v>
       </c>
       <c r="F133" s="6">
-        <v>5939</v>
+        <v>2251</v>
       </c>
       <c r="G133" s="6">
-        <v>871</v>
+        <v>417</v>
       </c>
       <c r="H133" s="6">
-        <v>579</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -4547,25 +4535,25 @@
         <v>139</v>
       </c>
       <c r="B134" s="5">
-        <v>16003</v>
+        <v>27764</v>
       </c>
       <c r="C134" s="6">
-        <v>551</v>
+        <v>2490</v>
       </c>
       <c r="D134" s="6">
-        <v>2344</v>
+        <v>11677</v>
       </c>
       <c r="E134" s="6">
-        <v>6009</v>
+        <v>9721</v>
       </c>
       <c r="F134" s="6">
-        <v>5680</v>
+        <v>3246</v>
       </c>
       <c r="G134" s="6">
-        <v>919</v>
+        <v>375</v>
       </c>
       <c r="H134" s="6">
-        <v>500</v>
+        <v>255</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -4573,51 +4561,51 @@
         <v>140</v>
       </c>
       <c r="B135" s="5">
-        <v>11809</v>
+        <v>8405</v>
       </c>
       <c r="C135" s="6">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D135" s="6">
-        <v>2311</v>
+        <v>1111</v>
       </c>
       <c r="E135" s="6">
-        <v>4937</v>
+        <v>2917</v>
       </c>
       <c r="F135" s="6">
-        <v>3354</v>
+        <v>3133</v>
       </c>
       <c r="G135" s="6">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="H135" s="6">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B136" s="5">
-        <v>41717</v>
+        <v>10863</v>
       </c>
       <c r="C136" s="6">
-        <v>3581</v>
+        <v>316</v>
       </c>
       <c r="D136" s="6">
-        <v>15954</v>
+        <v>2614</v>
       </c>
       <c r="E136" s="6">
-        <v>13916</v>
+        <v>3769</v>
       </c>
       <c r="F136" s="6">
-        <v>6161</v>
+        <v>3464</v>
       </c>
       <c r="G136" s="6">
-        <v>1372</v>
+        <v>604</v>
       </c>
       <c r="H136" s="6">
-        <v>733</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -4625,25 +4613,25 @@
         <v>142</v>
       </c>
       <c r="B137" s="5">
-        <v>12986</v>
+        <v>12339</v>
       </c>
       <c r="C137" s="6">
-        <v>967</v>
+        <v>80</v>
       </c>
       <c r="D137" s="6">
-        <v>5637</v>
+        <v>1715</v>
       </c>
       <c r="E137" s="6">
-        <v>3641</v>
+        <v>3350</v>
       </c>
       <c r="F137" s="6">
-        <v>2251</v>
+        <v>5008</v>
       </c>
       <c r="G137" s="6">
-        <v>417</v>
+        <v>1650</v>
       </c>
       <c r="H137" s="6">
-        <v>73</v>
+        <v>536</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
@@ -4651,25 +4639,25 @@
         <v>143</v>
       </c>
       <c r="B138" s="5">
-        <v>27764</v>
+        <v>18976</v>
       </c>
       <c r="C138" s="6">
-        <v>2490</v>
+        <v>687</v>
       </c>
       <c r="D138" s="6">
-        <v>11677</v>
+        <v>5518</v>
       </c>
       <c r="E138" s="6">
-        <v>9721</v>
+        <v>5653</v>
       </c>
       <c r="F138" s="6">
-        <v>3246</v>
+        <v>4936</v>
       </c>
       <c r="G138" s="6">
-        <v>375</v>
+        <v>1472</v>
       </c>
       <c r="H138" s="6">
-        <v>255</v>
+        <v>710</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -4677,51 +4665,51 @@
         <v>144</v>
       </c>
       <c r="B139" s="5">
-        <v>8405</v>
+        <v>9406</v>
       </c>
       <c r="C139" s="6">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="D139" s="6">
-        <v>1111</v>
+        <v>1947</v>
       </c>
       <c r="E139" s="6">
-        <v>2917</v>
+        <v>2592</v>
       </c>
       <c r="F139" s="6">
-        <v>3133</v>
+        <v>3291</v>
       </c>
       <c r="G139" s="6">
-        <v>647</v>
+        <v>966</v>
       </c>
       <c r="H139" s="6">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>145</v>
       </c>
       <c r="B140" s="5">
-        <v>10863</v>
+        <v>6792</v>
       </c>
       <c r="C140" s="6">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="D140" s="6">
-        <v>2614</v>
+        <v>907</v>
       </c>
       <c r="E140" s="6">
-        <v>3769</v>
+        <v>2023</v>
       </c>
       <c r="F140" s="6">
-        <v>3464</v>
+        <v>2908</v>
       </c>
       <c r="G140" s="6">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="H140" s="6">
-        <v>96</v>
+        <v>236</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -4729,25 +4717,25 @@
         <v>146</v>
       </c>
       <c r="B141" s="5">
-        <v>12339</v>
+        <v>9932</v>
       </c>
       <c r="C141" s="6">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="D141" s="6">
-        <v>1715</v>
+        <v>2807</v>
       </c>
       <c r="E141" s="6">
-        <v>3350</v>
+        <v>2435</v>
       </c>
       <c r="F141" s="6">
-        <v>5008</v>
+        <v>2684</v>
       </c>
       <c r="G141" s="6">
-        <v>1650</v>
+        <v>929</v>
       </c>
       <c r="H141" s="6">
-        <v>536</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -4755,25 +4743,25 @@
         <v>147</v>
       </c>
       <c r="B142" s="5">
-        <v>18976</v>
+        <v>14401</v>
       </c>
       <c r="C142" s="6">
-        <v>687</v>
+        <v>941</v>
       </c>
       <c r="D142" s="6">
-        <v>5518</v>
+        <v>5045</v>
       </c>
       <c r="E142" s="6">
-        <v>5653</v>
+        <v>4047</v>
       </c>
       <c r="F142" s="6">
-        <v>4936</v>
+        <v>3160</v>
       </c>
       <c r="G142" s="6">
-        <v>1472</v>
+        <v>702</v>
       </c>
       <c r="H142" s="6">
-        <v>710</v>
+        <v>506</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -4781,51 +4769,51 @@
         <v>148</v>
       </c>
       <c r="B143" s="5">
-        <v>9406</v>
+        <v>14374</v>
       </c>
       <c r="C143" s="6">
-        <v>261</v>
+        <v>419</v>
       </c>
       <c r="D143" s="6">
-        <v>1947</v>
+        <v>4758</v>
       </c>
       <c r="E143" s="6">
-        <v>2592</v>
+        <v>5075</v>
       </c>
       <c r="F143" s="6">
-        <v>3291</v>
+        <v>3005</v>
       </c>
       <c r="G143" s="6">
-        <v>966</v>
+        <v>648</v>
       </c>
       <c r="H143" s="6">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B144" s="5">
-        <v>6792</v>
+        <v>12383</v>
       </c>
       <c r="C144" s="6">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="D144" s="6">
-        <v>907</v>
+        <v>1955</v>
       </c>
       <c r="E144" s="6">
-        <v>2023</v>
+        <v>4691</v>
       </c>
       <c r="F144" s="6">
-        <v>2908</v>
+        <v>4253</v>
       </c>
       <c r="G144" s="6">
-        <v>591</v>
+        <v>819</v>
       </c>
       <c r="H144" s="6">
-        <v>236</v>
+        <v>300</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -4833,25 +4821,25 @@
         <v>150</v>
       </c>
       <c r="B145" s="5">
-        <v>9932</v>
+        <v>6946</v>
       </c>
       <c r="C145" s="6">
-        <v>502</v>
+        <v>234</v>
       </c>
       <c r="D145" s="6">
-        <v>2807</v>
+        <v>1711</v>
       </c>
       <c r="E145" s="6">
-        <v>2435</v>
+        <v>2322</v>
       </c>
       <c r="F145" s="6">
-        <v>2684</v>
+        <v>1855</v>
       </c>
       <c r="G145" s="6">
-        <v>929</v>
+        <v>700</v>
       </c>
       <c r="H145" s="6">
-        <v>575</v>
+        <v>124</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -4859,25 +4847,25 @@
         <v>151</v>
       </c>
       <c r="B146" s="5">
-        <v>14401</v>
+        <v>18764</v>
       </c>
       <c r="C146" s="6">
-        <v>941</v>
+        <v>368</v>
       </c>
       <c r="D146" s="6">
-        <v>5045</v>
+        <v>2722</v>
       </c>
       <c r="E146" s="6">
-        <v>4047</v>
+        <v>6092</v>
       </c>
       <c r="F146" s="6">
-        <v>3160</v>
+        <v>6791</v>
       </c>
       <c r="G146" s="6">
-        <v>702</v>
+        <v>1886</v>
       </c>
       <c r="H146" s="6">
-        <v>506</v>
+        <v>905</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -4885,51 +4873,51 @@
         <v>152</v>
       </c>
       <c r="B147" s="5">
-        <v>14374</v>
+        <v>18828</v>
       </c>
       <c r="C147" s="6">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="D147" s="6">
-        <v>4758</v>
+        <v>3230</v>
       </c>
       <c r="E147" s="6">
-        <v>5075</v>
+        <v>5961</v>
       </c>
       <c r="F147" s="6">
-        <v>3005</v>
+        <v>6356</v>
       </c>
       <c r="G147" s="6">
-        <v>648</v>
+        <v>1641</v>
       </c>
       <c r="H147" s="6">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>153</v>
       </c>
       <c r="B148" s="5">
-        <v>12383</v>
+        <v>10993</v>
       </c>
       <c r="C148" s="6">
-        <v>365</v>
+        <v>954</v>
       </c>
       <c r="D148" s="6">
-        <v>1955</v>
+        <v>5346</v>
       </c>
       <c r="E148" s="6">
-        <v>4691</v>
+        <v>2768</v>
       </c>
       <c r="F148" s="6">
-        <v>4253</v>
+        <v>1285</v>
       </c>
       <c r="G148" s="6">
-        <v>819</v>
+        <v>262</v>
       </c>
       <c r="H148" s="6">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -4937,25 +4925,25 @@
         <v>154</v>
       </c>
       <c r="B149" s="5">
-        <v>6946</v>
+        <v>23370</v>
       </c>
       <c r="C149" s="6">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="D149" s="6">
-        <v>1711</v>
+        <v>2395</v>
       </c>
       <c r="E149" s="6">
-        <v>2322</v>
+        <v>7672</v>
       </c>
       <c r="F149" s="6">
-        <v>1855</v>
+        <v>10106</v>
       </c>
       <c r="G149" s="6">
-        <v>700</v>
+        <v>1914</v>
       </c>
       <c r="H149" s="6">
-        <v>124</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -4963,25 +4951,25 @@
         <v>155</v>
       </c>
       <c r="B150" s="5">
-        <v>18764</v>
+        <v>7474</v>
       </c>
       <c r="C150" s="6">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="D150" s="6">
-        <v>2722</v>
+        <v>1230</v>
       </c>
       <c r="E150" s="6">
-        <v>6092</v>
+        <v>2309</v>
       </c>
       <c r="F150" s="6">
-        <v>6791</v>
+        <v>2899</v>
       </c>
       <c r="G150" s="6">
-        <v>1886</v>
+        <v>513</v>
       </c>
       <c r="H150" s="6">
-        <v>905</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -4989,25 +4977,25 @@
         <v>156</v>
       </c>
       <c r="B151" s="5">
-        <v>18828</v>
+        <v>11673</v>
       </c>
       <c r="C151" s="6">
-        <v>384</v>
+        <v>163</v>
       </c>
       <c r="D151" s="6">
-        <v>3230</v>
+        <v>1637</v>
       </c>
       <c r="E151" s="6">
-        <v>5961</v>
+        <v>2938</v>
       </c>
       <c r="F151" s="6">
-        <v>6356</v>
+        <v>4622</v>
       </c>
       <c r="G151" s="6">
-        <v>1641</v>
+        <v>1809</v>
       </c>
       <c r="H151" s="6">
-        <v>1256</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -5015,51 +5003,51 @@
         <v>157</v>
       </c>
       <c r="B152" s="5">
-        <v>10993</v>
+        <v>11701</v>
       </c>
       <c r="C152" s="6">
-        <v>954</v>
+        <v>100</v>
       </c>
       <c r="D152" s="6">
-        <v>5346</v>
+        <v>2360</v>
       </c>
       <c r="E152" s="6">
-        <v>2768</v>
+        <v>4103</v>
       </c>
       <c r="F152" s="6">
-        <v>1285</v>
+        <v>3970</v>
       </c>
       <c r="G152" s="6">
-        <v>262</v>
+        <v>860</v>
       </c>
       <c r="H152" s="6">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B153" s="5">
-        <v>23370</v>
+        <v>10072</v>
       </c>
       <c r="C153" s="6">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D153" s="6">
-        <v>2395</v>
+        <v>1588</v>
       </c>
       <c r="E153" s="6">
-        <v>7672</v>
+        <v>2339</v>
       </c>
       <c r="F153" s="6">
-        <v>10106</v>
+        <v>4005</v>
       </c>
       <c r="G153" s="6">
-        <v>1914</v>
+        <v>1354</v>
       </c>
       <c r="H153" s="6">
-        <v>1118</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -5067,25 +5055,25 @@
         <v>159</v>
       </c>
       <c r="B154" s="5">
-        <v>7474</v>
+        <v>16964</v>
       </c>
       <c r="C154" s="6">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="D154" s="6">
-        <v>1230</v>
+        <v>2652</v>
       </c>
       <c r="E154" s="6">
-        <v>2309</v>
+        <v>3918</v>
       </c>
       <c r="F154" s="6">
-        <v>2899</v>
+        <v>7374</v>
       </c>
       <c r="G154" s="6">
-        <v>513</v>
+        <v>2165</v>
       </c>
       <c r="H154" s="6">
-        <v>281</v>
+        <v>704</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -5093,25 +5081,25 @@
         <v>160</v>
       </c>
       <c r="B155" s="5">
-        <v>11673</v>
+        <v>7562</v>
       </c>
       <c r="C155" s="6">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="D155" s="6">
-        <v>1637</v>
+        <v>1161</v>
       </c>
       <c r="E155" s="6">
-        <v>2938</v>
+        <v>1804</v>
       </c>
       <c r="F155" s="6">
-        <v>4622</v>
+        <v>3171</v>
       </c>
       <c r="G155" s="6">
-        <v>1809</v>
+        <v>974</v>
       </c>
       <c r="H155" s="6">
-        <v>504</v>
+        <v>352</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5119,51 +5107,51 @@
         <v>161</v>
       </c>
       <c r="B156" s="5">
-        <v>11701</v>
+        <v>13399</v>
       </c>
       <c r="C156" s="6">
-        <v>100</v>
+        <v>429</v>
       </c>
       <c r="D156" s="6">
-        <v>2360</v>
+        <v>1940</v>
       </c>
       <c r="E156" s="6">
-        <v>4103</v>
+        <v>3842</v>
       </c>
       <c r="F156" s="6">
-        <v>3970</v>
+        <v>5268</v>
       </c>
       <c r="G156" s="6">
-        <v>860</v>
+        <v>1306</v>
       </c>
       <c r="H156" s="6">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>162</v>
       </c>
       <c r="B157" s="5">
-        <v>10072</v>
+        <v>10512</v>
       </c>
       <c r="C157" s="6">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="D157" s="6">
-        <v>1588</v>
+        <v>2679</v>
       </c>
       <c r="E157" s="6">
-        <v>2339</v>
+        <v>3113</v>
       </c>
       <c r="F157" s="6">
-        <v>4005</v>
+        <v>3477</v>
       </c>
       <c r="G157" s="6">
-        <v>1354</v>
+        <v>619</v>
       </c>
       <c r="H157" s="6">
-        <v>652</v>
+        <v>350</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5171,25 +5159,25 @@
         <v>163</v>
       </c>
       <c r="B158" s="5">
-        <v>16964</v>
+        <v>6843</v>
       </c>
       <c r="C158" s="6">
-        <v>151</v>
+        <v>460</v>
       </c>
       <c r="D158" s="6">
-        <v>2652</v>
+        <v>1067</v>
       </c>
       <c r="E158" s="6">
-        <v>3918</v>
+        <v>1433</v>
       </c>
       <c r="F158" s="6">
-        <v>7374</v>
+        <v>2372</v>
       </c>
       <c r="G158" s="6">
-        <v>2165</v>
+        <v>999</v>
       </c>
       <c r="H158" s="6">
-        <v>704</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5197,25 +5185,25 @@
         <v>164</v>
       </c>
       <c r="B159" s="5">
-        <v>7562</v>
+        <v>16666</v>
       </c>
       <c r="C159" s="6">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="D159" s="6">
-        <v>1161</v>
+        <v>1312</v>
       </c>
       <c r="E159" s="6">
-        <v>1804</v>
+        <v>3304</v>
       </c>
       <c r="F159" s="6">
-        <v>3171</v>
+        <v>8174</v>
       </c>
       <c r="G159" s="6">
-        <v>974</v>
+        <v>2699</v>
       </c>
       <c r="H159" s="6">
-        <v>352</v>
+        <v>985</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5223,25 +5211,25 @@
         <v>165</v>
       </c>
       <c r="B160" s="5">
-        <v>13399</v>
+        <v>16704</v>
       </c>
       <c r="C160" s="6">
-        <v>429</v>
+        <v>1964</v>
       </c>
       <c r="D160" s="6">
-        <v>1940</v>
+        <v>5676</v>
       </c>
       <c r="E160" s="6">
-        <v>3842</v>
+        <v>4370</v>
       </c>
       <c r="F160" s="6">
-        <v>5268</v>
+        <v>3367</v>
       </c>
       <c r="G160" s="6">
-        <v>1306</v>
+        <v>928</v>
       </c>
       <c r="H160" s="6">
-        <v>614</v>
+        <v>399</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -5249,51 +5237,51 @@
         <v>166</v>
       </c>
       <c r="B161" s="5">
-        <v>10512</v>
+        <v>11643</v>
       </c>
       <c r="C161" s="6">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="D161" s="6">
-        <v>2679</v>
+        <v>682</v>
       </c>
       <c r="E161" s="6">
-        <v>3113</v>
+        <v>3702</v>
       </c>
       <c r="F161" s="6">
-        <v>3477</v>
+        <v>5408</v>
       </c>
       <c r="G161" s="6">
-        <v>619</v>
+        <v>1102</v>
       </c>
       <c r="H161" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>167</v>
       </c>
       <c r="B162" s="5">
-        <v>6843</v>
+        <v>6040</v>
       </c>
       <c r="C162" s="6">
-        <v>460</v>
+        <v>78</v>
       </c>
       <c r="D162" s="6">
-        <v>1067</v>
+        <v>133</v>
       </c>
       <c r="E162" s="6">
-        <v>1433</v>
+        <v>1156</v>
       </c>
       <c r="F162" s="6">
-        <v>2372</v>
+        <v>3579</v>
       </c>
       <c r="G162" s="6">
-        <v>999</v>
+        <v>672</v>
       </c>
       <c r="H162" s="6">
-        <v>512</v>
+        <v>422</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -5301,25 +5289,25 @@
         <v>168</v>
       </c>
       <c r="B163" s="5">
-        <v>16666</v>
+        <v>8177</v>
       </c>
       <c r="C163" s="6">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="D163" s="6">
-        <v>1312</v>
+        <v>474</v>
       </c>
       <c r="E163" s="6">
-        <v>3304</v>
+        <v>1474</v>
       </c>
       <c r="F163" s="6">
-        <v>8174</v>
+        <v>4087</v>
       </c>
       <c r="G163" s="6">
-        <v>2699</v>
+        <v>1445</v>
       </c>
       <c r="H163" s="6">
-        <v>985</v>
+        <v>578</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -5327,25 +5315,25 @@
         <v>169</v>
       </c>
       <c r="B164" s="5">
-        <v>16704</v>
+        <v>6598</v>
       </c>
       <c r="C164" s="6">
-        <v>1964</v>
+        <v>60</v>
       </c>
       <c r="D164" s="6">
-        <v>5676</v>
+        <v>403</v>
       </c>
       <c r="E164" s="6">
-        <v>4370</v>
+        <v>1313</v>
       </c>
       <c r="F164" s="6">
-        <v>3367</v>
+        <v>2655</v>
       </c>
       <c r="G164" s="6">
-        <v>928</v>
+        <v>1694</v>
       </c>
       <c r="H164" s="6">
-        <v>399</v>
+        <v>473</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5353,77 +5341,77 @@
         <v>170</v>
       </c>
       <c r="B165" s="5">
-        <v>11643</v>
+        <v>16826</v>
       </c>
       <c r="C165" s="6">
-        <v>106</v>
+        <v>286</v>
       </c>
       <c r="D165" s="6">
-        <v>682</v>
+        <v>1921</v>
       </c>
       <c r="E165" s="6">
-        <v>3702</v>
+        <v>3376</v>
       </c>
       <c r="F165" s="6">
-        <v>5408</v>
+        <v>7797</v>
       </c>
       <c r="G165" s="6">
-        <v>1102</v>
+        <v>2510</v>
       </c>
       <c r="H165" s="6">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>171</v>
       </c>
       <c r="B166" s="5">
-        <v>6040</v>
+        <v>8908</v>
       </c>
       <c r="C166" s="6">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D166" s="6">
-        <v>133</v>
+        <v>1196</v>
       </c>
       <c r="E166" s="6">
-        <v>1156</v>
+        <v>2747</v>
       </c>
       <c r="F166" s="6">
-        <v>3579</v>
+        <v>3475</v>
       </c>
       <c r="G166" s="6">
-        <v>672</v>
+        <v>1162</v>
       </c>
       <c r="H166" s="6">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>172</v>
       </c>
       <c r="B167" s="5">
-        <v>8177</v>
+        <v>9944</v>
       </c>
       <c r="C167" s="6">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D167" s="6">
-        <v>474</v>
+        <v>2921</v>
       </c>
       <c r="E167" s="6">
-        <v>1474</v>
+        <v>2997</v>
       </c>
       <c r="F167" s="6">
-        <v>4087</v>
+        <v>2237</v>
       </c>
       <c r="G167" s="6">
-        <v>1445</v>
+        <v>1339</v>
       </c>
       <c r="H167" s="6">
-        <v>578</v>
+        <v>376</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5431,51 +5419,51 @@
         <v>173</v>
       </c>
       <c r="B168" s="5">
-        <v>6598</v>
+        <v>8501</v>
       </c>
       <c r="C168" s="6">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D168" s="6">
-        <v>403</v>
+        <v>648</v>
       </c>
       <c r="E168" s="6">
-        <v>1313</v>
+        <v>1627</v>
       </c>
       <c r="F168" s="6">
-        <v>2655</v>
+        <v>4187</v>
       </c>
       <c r="G168" s="6">
-        <v>1694</v>
+        <v>1303</v>
       </c>
       <c r="H168" s="6">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>174</v>
       </c>
       <c r="B169" s="5">
-        <v>16826</v>
+        <v>13785</v>
       </c>
       <c r="C169" s="6">
-        <v>286</v>
+        <v>927</v>
       </c>
       <c r="D169" s="6">
-        <v>1921</v>
+        <v>2373</v>
       </c>
       <c r="E169" s="6">
-        <v>3376</v>
+        <v>3968</v>
       </c>
       <c r="F169" s="6">
-        <v>7797</v>
+        <v>4353</v>
       </c>
       <c r="G169" s="6">
-        <v>2510</v>
+        <v>1410</v>
       </c>
       <c r="H169" s="6">
-        <v>936</v>
+        <v>754</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -5483,51 +5471,51 @@
         <v>175</v>
       </c>
       <c r="B170" s="5">
-        <v>8908</v>
+        <v>13838</v>
       </c>
       <c r="C170" s="6">
-        <v>55</v>
+        <v>663</v>
       </c>
       <c r="D170" s="6">
-        <v>1196</v>
+        <v>3153</v>
       </c>
       <c r="E170" s="6">
-        <v>2747</v>
+        <v>4675</v>
       </c>
       <c r="F170" s="6">
-        <v>3475</v>
+        <v>4377</v>
       </c>
       <c r="G170" s="6">
-        <v>1162</v>
+        <v>593</v>
       </c>
       <c r="H170" s="6">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>176</v>
       </c>
       <c r="B171" s="5">
-        <v>9944</v>
+        <v>17883</v>
       </c>
       <c r="C171" s="6">
-        <v>74</v>
+        <v>1696</v>
       </c>
       <c r="D171" s="6">
-        <v>2921</v>
+        <v>5106</v>
       </c>
       <c r="E171" s="6">
-        <v>2997</v>
+        <v>4768</v>
       </c>
       <c r="F171" s="6">
-        <v>2237</v>
+        <v>3673</v>
       </c>
       <c r="G171" s="6">
-        <v>1339</v>
+        <v>1413</v>
       </c>
       <c r="H171" s="6">
-        <v>376</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -5535,103 +5523,103 @@
         <v>177</v>
       </c>
       <c r="B172" s="5">
-        <v>8501</v>
+        <v>9674</v>
       </c>
       <c r="C172" s="6">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D172" s="6">
-        <v>648</v>
+        <v>1246</v>
       </c>
       <c r="E172" s="6">
-        <v>1627</v>
+        <v>2162</v>
       </c>
       <c r="F172" s="6">
-        <v>4187</v>
+        <v>4377</v>
       </c>
       <c r="G172" s="6">
-        <v>1303</v>
+        <v>1440</v>
       </c>
       <c r="H172" s="6">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>178</v>
       </c>
       <c r="B173" s="5">
-        <v>13785</v>
+        <v>8567</v>
       </c>
       <c r="C173" s="6">
-        <v>927</v>
+        <v>345</v>
       </c>
       <c r="D173" s="6">
-        <v>2373</v>
+        <v>2272</v>
       </c>
       <c r="E173" s="6">
-        <v>3968</v>
+        <v>2926</v>
       </c>
       <c r="F173" s="6">
-        <v>4353</v>
+        <v>2253</v>
       </c>
       <c r="G173" s="6">
-        <v>1410</v>
+        <v>538</v>
       </c>
       <c r="H173" s="6">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>179</v>
       </c>
       <c r="B174" s="5">
-        <v>13838</v>
+        <v>11198</v>
       </c>
       <c r="C174" s="6">
-        <v>663</v>
+        <v>278</v>
       </c>
       <c r="D174" s="6">
-        <v>3153</v>
+        <v>1384</v>
       </c>
       <c r="E174" s="6">
-        <v>4675</v>
+        <v>3509</v>
       </c>
       <c r="F174" s="6">
-        <v>4377</v>
+        <v>4896</v>
       </c>
       <c r="G174" s="6">
-        <v>593</v>
+        <v>739</v>
       </c>
       <c r="H174" s="6">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>180</v>
       </c>
       <c r="B175" s="5">
-        <v>17883</v>
+        <v>13757</v>
       </c>
       <c r="C175" s="6">
-        <v>1696</v>
+        <v>762</v>
       </c>
       <c r="D175" s="6">
-        <v>5106</v>
+        <v>3594</v>
       </c>
       <c r="E175" s="6">
-        <v>4768</v>
+        <v>3838</v>
       </c>
       <c r="F175" s="6">
-        <v>3673</v>
+        <v>3375</v>
       </c>
       <c r="G175" s="6">
-        <v>1413</v>
+        <v>1633</v>
       </c>
       <c r="H175" s="6">
-        <v>1227</v>
+        <v>555</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5639,25 +5627,25 @@
         <v>181</v>
       </c>
       <c r="B176" s="5">
-        <v>9674</v>
+        <v>7064</v>
       </c>
       <c r="C176" s="6">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="D176" s="6">
-        <v>1246</v>
+        <v>1008</v>
       </c>
       <c r="E176" s="6">
-        <v>2162</v>
+        <v>1400</v>
       </c>
       <c r="F176" s="6">
-        <v>4377</v>
+        <v>3327</v>
       </c>
       <c r="G176" s="6">
-        <v>1440</v>
+        <v>663</v>
       </c>
       <c r="H176" s="6">
-        <v>385</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5665,51 +5653,51 @@
         <v>182</v>
       </c>
       <c r="B177" s="5">
-        <v>8567</v>
+        <v>7011</v>
       </c>
       <c r="C177" s="6">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="D177" s="6">
-        <v>2272</v>
+        <v>1023</v>
       </c>
       <c r="E177" s="6">
-        <v>2926</v>
+        <v>1383</v>
       </c>
       <c r="F177" s="6">
-        <v>2253</v>
+        <v>3058</v>
       </c>
       <c r="G177" s="6">
-        <v>538</v>
+        <v>994</v>
       </c>
       <c r="H177" s="6">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>183</v>
       </c>
       <c r="B178" s="5">
-        <v>11198</v>
+        <v>10192</v>
       </c>
       <c r="C178" s="6">
-        <v>278</v>
+        <v>428</v>
       </c>
       <c r="D178" s="6">
-        <v>1384</v>
+        <v>2086</v>
       </c>
       <c r="E178" s="6">
-        <v>3509</v>
+        <v>2723</v>
       </c>
       <c r="F178" s="6">
-        <v>4896</v>
+        <v>3605</v>
       </c>
       <c r="G178" s="6">
-        <v>739</v>
+        <v>918</v>
       </c>
       <c r="H178" s="6">
-        <v>392</v>
+        <v>432</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -5717,129 +5705,129 @@
         <v>184</v>
       </c>
       <c r="B179" s="5">
-        <v>13757</v>
+        <v>14282</v>
       </c>
       <c r="C179" s="6">
-        <v>762</v>
+        <v>135</v>
       </c>
       <c r="D179" s="6">
-        <v>3594</v>
+        <v>1298</v>
       </c>
       <c r="E179" s="6">
-        <v>3838</v>
+        <v>2601</v>
       </c>
       <c r="F179" s="6">
-        <v>3375</v>
+        <v>7577</v>
       </c>
       <c r="G179" s="6">
-        <v>1633</v>
+        <v>1854</v>
       </c>
       <c r="H179" s="6">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>185</v>
       </c>
       <c r="B180" s="5">
-        <v>7064</v>
+        <v>6115</v>
       </c>
       <c r="C180" s="6">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="D180" s="6">
-        <v>1008</v>
+        <v>792</v>
       </c>
       <c r="E180" s="6">
-        <v>1400</v>
+        <v>1917</v>
       </c>
       <c r="F180" s="6">
-        <v>3327</v>
+        <v>2536</v>
       </c>
       <c r="G180" s="6">
-        <v>663</v>
+        <v>576</v>
       </c>
       <c r="H180" s="6">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>186</v>
       </c>
       <c r="B181" s="5">
-        <v>7011</v>
+        <v>11739</v>
       </c>
       <c r="C181" s="6">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="D181" s="6">
-        <v>1023</v>
+        <v>1574</v>
       </c>
       <c r="E181" s="6">
-        <v>1383</v>
+        <v>2253</v>
       </c>
       <c r="F181" s="6">
-        <v>3058</v>
+        <v>4784</v>
       </c>
       <c r="G181" s="6">
-        <v>994</v>
+        <v>2206</v>
       </c>
       <c r="H181" s="6">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>187</v>
       </c>
       <c r="B182" s="5">
-        <v>10192</v>
+        <v>9275</v>
       </c>
       <c r="C182" s="6">
-        <v>428</v>
+        <v>247</v>
       </c>
       <c r="D182" s="6">
-        <v>2086</v>
+        <v>1680</v>
       </c>
       <c r="E182" s="6">
-        <v>2723</v>
+        <v>2210</v>
       </c>
       <c r="F182" s="6">
-        <v>3605</v>
+        <v>3968</v>
       </c>
       <c r="G182" s="6">
-        <v>918</v>
+        <v>763</v>
       </c>
       <c r="H182" s="6">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>188</v>
       </c>
       <c r="B183" s="5">
-        <v>14282</v>
+        <v>8398</v>
       </c>
       <c r="C183" s="6">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D183" s="6">
-        <v>1298</v>
+        <v>895</v>
       </c>
       <c r="E183" s="6">
-        <v>2601</v>
+        <v>2138</v>
       </c>
       <c r="F183" s="6">
-        <v>7577</v>
+        <v>4068</v>
       </c>
       <c r="G183" s="6">
-        <v>1854</v>
+        <v>976</v>
       </c>
       <c r="H183" s="6">
-        <v>817</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -5847,25 +5835,25 @@
         <v>189</v>
       </c>
       <c r="B184" s="5">
-        <v>6115</v>
+        <v>10352</v>
       </c>
       <c r="C184" s="6">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D184" s="6">
-        <v>792</v>
+        <v>991</v>
       </c>
       <c r="E184" s="6">
-        <v>1917</v>
+        <v>1382</v>
       </c>
       <c r="F184" s="6">
-        <v>2536</v>
+        <v>4913</v>
       </c>
       <c r="G184" s="6">
-        <v>576</v>
+        <v>2404</v>
       </c>
       <c r="H184" s="6">
-        <v>148</v>
+        <v>524</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
@@ -5873,51 +5861,51 @@
         <v>190</v>
       </c>
       <c r="B185" s="5">
-        <v>11739</v>
+        <v>8244</v>
       </c>
       <c r="C185" s="6">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="D185" s="6">
-        <v>1574</v>
+        <v>989</v>
       </c>
       <c r="E185" s="6">
-        <v>2253</v>
+        <v>1379</v>
       </c>
       <c r="F185" s="6">
-        <v>4784</v>
+        <v>3795</v>
       </c>
       <c r="G185" s="6">
-        <v>2206</v>
+        <v>1559</v>
       </c>
       <c r="H185" s="6">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B186" s="5">
-        <v>9275</v>
+        <v>8733</v>
       </c>
       <c r="C186" s="6">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D186" s="6">
-        <v>1680</v>
+        <v>1091</v>
       </c>
       <c r="E186" s="6">
-        <v>2210</v>
+        <v>1347</v>
       </c>
       <c r="F186" s="6">
-        <v>3968</v>
+        <v>4537</v>
       </c>
       <c r="G186" s="6">
-        <v>763</v>
+        <v>1099</v>
       </c>
       <c r="H186" s="6">
-        <v>407</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -5925,180 +5913,76 @@
         <v>192</v>
       </c>
       <c r="B187" s="5">
-        <v>8398</v>
+        <v>7225</v>
       </c>
       <c r="C187" s="6">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D187" s="6">
-        <v>895</v>
+        <v>642</v>
       </c>
       <c r="E187" s="6">
-        <v>2138</v>
+        <v>1081</v>
       </c>
       <c r="F187" s="6">
-        <v>4068</v>
+        <v>3699</v>
       </c>
       <c r="G187" s="6">
-        <v>976</v>
+        <v>1420</v>
       </c>
       <c r="H187" s="6">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>193</v>
       </c>
       <c r="B188" s="5">
-        <v>10352</v>
+        <v>9188</v>
       </c>
       <c r="C188" s="6">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="D188" s="6">
-        <v>991</v>
+        <v>830</v>
       </c>
       <c r="E188" s="6">
-        <v>1382</v>
+        <v>1738</v>
       </c>
       <c r="F188" s="6">
-        <v>4913</v>
+        <v>4865</v>
       </c>
       <c r="G188" s="6">
-        <v>2404</v>
+        <v>1500</v>
       </c>
       <c r="H188" s="6">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="26.4" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B189" s="5">
-        <v>8244</v>
+        <v>15716</v>
       </c>
       <c r="C189" s="6">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="D189" s="6">
-        <v>989</v>
+        <v>963</v>
       </c>
       <c r="E189" s="6">
-        <v>1379</v>
+        <v>2213</v>
       </c>
       <c r="F189" s="6">
-        <v>3795</v>
+        <v>9074</v>
       </c>
       <c r="G189" s="6">
-        <v>1559</v>
+        <v>2719</v>
       </c>
       <c r="H189" s="6">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B190" s="5">
-        <v>8733</v>
-      </c>
-      <c r="C190" s="6">
-        <v>239</v>
-      </c>
-      <c r="D190" s="6">
-        <v>1091</v>
-      </c>
-      <c r="E190" s="6">
-        <v>1347</v>
-      </c>
-      <c r="F190" s="6">
-        <v>4537</v>
-      </c>
-      <c r="G190" s="6">
-        <v>1099</v>
-      </c>
-      <c r="H190" s="6">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A191" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B191" s="5">
-        <v>7225</v>
-      </c>
-      <c r="C191" s="6">
-        <v>117</v>
-      </c>
-      <c r="D191" s="6">
-        <v>642</v>
-      </c>
-      <c r="E191" s="6">
-        <v>1081</v>
-      </c>
-      <c r="F191" s="6">
-        <v>3699</v>
-      </c>
-      <c r="G191" s="6">
-        <v>1420</v>
-      </c>
-      <c r="H191" s="6">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A192" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B192" s="5">
-        <v>9188</v>
-      </c>
-      <c r="C192" s="6">
-        <v>53</v>
-      </c>
-      <c r="D192" s="6">
-        <v>830</v>
-      </c>
-      <c r="E192" s="6">
-        <v>1738</v>
-      </c>
-      <c r="F192" s="6">
-        <v>4865</v>
-      </c>
-      <c r="G192" s="6">
-        <v>1500</v>
-      </c>
-      <c r="H192" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B193" s="5">
-        <v>15716</v>
-      </c>
-      <c r="C193" s="6">
-        <v>233</v>
-      </c>
-      <c r="D193" s="6">
-        <v>963</v>
-      </c>
-      <c r="E193" s="6">
-        <v>2213</v>
-      </c>
-      <c r="F193" s="6">
-        <v>9074</v>
-      </c>
-      <c r="G193" s="6">
-        <v>2719</v>
-      </c>
-      <c r="H193" s="6">
         <v>514</v>
       </c>
     </row>
